--- a/100runs/run016/NotionalETEOutput016.xlsx
+++ b/100runs/run016/NotionalETEOutput016.xlsx
@@ -58,16 +58,16 @@
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_423.MISSILE_BRAVER_423</t>
+    <t>MISSILE_BRAVER_324.MISSILE_BRAVER_324</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_123.MISSILE_HIGHWIND_123</t>
+    <t>MISSILE_HIGHWIND_127.MISSILE_HIGHWIND_127</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_6.MISSILE_SOMERSAULT_6</t>
+    <t>MISSILE_BRAVER_349.MISSILE_BRAVER_349</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_2.MISSILE_SOMERSAULT_2</t>
+    <t>MISSILE_SOMERSAULT_451.MISSILE_SOMERSAULT_451</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -492,22 +492,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G2">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H2">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I2">
-        <v>-1587.154881737286</v>
+        <v>1114860.550712132</v>
       </c>
       <c r="J2">
-        <v>2069.286675964045</v>
+        <v>4843220.37450812</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.897067501</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -527,22 +527,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G3">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H3">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I3">
-        <v>-1555.820218195261</v>
+        <v>1114890.164687167</v>
       </c>
       <c r="J3">
-        <v>2018.949634314153</v>
+        <v>4843171.722949017</v>
       </c>
       <c r="K3">
-        <v>284.6897383494351</v>
+        <v>3984673.693027141</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -562,22 +562,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G4">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H4">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I4">
-        <v>-1523.713967390876</v>
+        <v>1114920.507879093</v>
       </c>
       <c r="J4">
-        <v>1968.612592664262</v>
+        <v>4843123.071389914</v>
       </c>
       <c r="K4">
-        <v>555.1835413738551</v>
+        <v>3984962.340327682</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -597,22 +597,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G5">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H5">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I5">
-        <v>-1490.817129697642</v>
+        <v>1114951.598244205</v>
       </c>
       <c r="J5">
-        <v>1918.27555101437</v>
+        <v>4843074.41983081</v>
       </c>
       <c r="K5">
-        <v>811.4814090732619</v>
+        <v>3985235.838969125</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -632,22 +632,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G6">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H6">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I6">
-        <v>-1457.110237640748</v>
+        <v>1114983.454180955</v>
       </c>
       <c r="J6">
-        <v>1867.938509364479</v>
+        <v>4843025.768271708</v>
       </c>
       <c r="K6">
-        <v>1053.583341447654</v>
+        <v>3985494.188951469</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -667,22 +667,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G7">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H7">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I7">
-        <v>-1422.573344376724</v>
+        <v>1115016.094540841</v>
       </c>
       <c r="J7">
-        <v>1817.601467714587</v>
+        <v>4842977.116712606</v>
       </c>
       <c r="K7">
-        <v>1281.489338497033</v>
+        <v>3985737.390274716</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -702,22 +702,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G8">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H8">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I8">
-        <v>-1387.186011889433</v>
+        <v>1115049.538639561</v>
       </c>
       <c r="J8">
-        <v>1767.264426064695</v>
+        <v>4842928.465153501</v>
       </c>
       <c r="K8">
-        <v>1495.199400221398</v>
+        <v>3985965.442938864</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,22 +737,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G9">
-        <v>-130.1016137393459</v>
+        <v>4841116.552048621</v>
       </c>
       <c r="H9">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I9">
-        <v>-1350.927298895392</v>
+        <v>1115083.806268443</v>
       </c>
       <c r="J9">
-        <v>1716.927384414804</v>
+        <v>4842879.813594399</v>
       </c>
       <c r="K9">
-        <v>1694.713526620748</v>
+        <v>3986178.346943914</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,22 +772,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>237.6211215405413</v>
+        <v>1116579.755466845</v>
       </c>
       <c r="G10">
-        <v>-108.6181751914821</v>
+        <v>4841133.064840505</v>
       </c>
       <c r="H10">
-        <v>1092.848275818483</v>
+        <v>3985227.13894537</v>
       </c>
       <c r="I10">
-        <v>-1313.775748451277</v>
+        <v>1115118.917706161</v>
       </c>
       <c r="J10">
-        <v>1666.590342764913</v>
+        <v>4842831.162035297</v>
       </c>
       <c r="K10">
-        <v>1880.031717695084</v>
+        <v>3986376.102289865</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,22 +807,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>184.4217103540005</v>
+        <v>1116531.074848507</v>
       </c>
       <c r="G11">
-        <v>-87.13473664361825</v>
+        <v>4841149.577632389</v>
       </c>
       <c r="H11">
-        <v>1346.381721971325</v>
+        <v>3985426.393292677</v>
       </c>
       <c r="I11">
-        <v>-1275.709375256275</v>
+        <v>1115154.893730731</v>
       </c>
       <c r="J11">
-        <v>1616.253301115021</v>
+        <v>4842782.510476193</v>
       </c>
       <c r="K11">
-        <v>2051.153973444406</v>
+        <v>3986558.708976718</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -842,22 +842,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>153.1697250524618</v>
+        <v>1116502.477427317</v>
       </c>
       <c r="G12">
-        <v>-65.65129809575441</v>
+        <v>4841166.090424274</v>
       </c>
       <c r="H12">
-        <v>1497.399208692645</v>
+        <v>3985545.079372186</v>
       </c>
       <c r="I12">
-        <v>-1236.705652641768</v>
+        <v>1115191.755631808</v>
       </c>
       <c r="J12">
-        <v>1565.916259465129</v>
+        <v>4842733.85891709</v>
       </c>
       <c r="K12">
-        <v>2208.080293868715</v>
+        <v>3986726.167004473</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -877,22 +877,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>133.4411791684861</v>
+        <v>1116484.424637049</v>
       </c>
       <c r="G13">
-        <v>-44.16785954789057</v>
+        <v>4841182.603216159</v>
       </c>
       <c r="H13">
-        <v>1605.321199570646</v>
+        <v>3985629.896291527</v>
       </c>
       <c r="I13">
-        <v>-1196.741499240644</v>
+        <v>1115229.525223288</v>
       </c>
       <c r="J13">
-        <v>1515.579217815238</v>
+        <v>4842685.207357988</v>
       </c>
       <c r="K13">
-        <v>2350.810678968009</v>
+        <v>3986878.476373129</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -912,22 +912,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>119.6825713518706</v>
+        <v>1116471.834694397</v>
       </c>
       <c r="G14">
-        <v>-22.68442100002672</v>
+        <v>4841199.116008042</v>
       </c>
       <c r="H14">
-        <v>1689.359996048097</v>
+        <v>3985695.943181176</v>
       </c>
       <c r="I14">
-        <v>-1155.793265328365</v>
+        <v>1115268.22485621</v>
       </c>
       <c r="J14">
-        <v>1465.242176165346</v>
+        <v>4842636.555798884</v>
       </c>
       <c r="K14">
-        <v>2479.34512874229</v>
+        <v>3987015.637082688</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -947,22 +947,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>109.4182378973821</v>
+        <v>1116462.442220153</v>
       </c>
       <c r="G15">
-        <v>-1.200982452162893</v>
+        <v>4841215.628799927</v>
       </c>
       <c r="H15">
-        <v>1758.194289006369</v>
+        <v>3985750.040706863</v>
       </c>
       <c r="I15">
-        <v>-1113.836718827681</v>
+        <v>1115307.877431989</v>
       </c>
       <c r="J15">
-        <v>1414.905134515455</v>
+        <v>4842587.904239782</v>
       </c>
       <c r="K15">
-        <v>2593.683643191555</v>
+        <v>3987137.649133148</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -982,22 +982,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>101.392962507644</v>
+        <v>1116455.098616914</v>
       </c>
       <c r="G16">
-        <v>20.28245609570095</v>
+        <v>4841232.141591812</v>
       </c>
       <c r="H16">
-        <v>1816.491910482173</v>
+        <v>3985795.857362191</v>
       </c>
       <c r="I16">
-        <v>-1070.847030968732</v>
+        <v>1115348.506415968</v>
       </c>
       <c r="J16">
-        <v>1364.568092865563</v>
+        <v>4842539.252680678</v>
       </c>
       <c r="K16">
-        <v>2693.826222315808</v>
+        <v>3987244.512524509</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1017,22 +1017,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>94.89993037788433</v>
+        <v>1116449.157107188</v>
       </c>
       <c r="G17">
-        <v>41.76589464356481</v>
+        <v>4841248.654383697</v>
       </c>
       <c r="H17">
-        <v>1867.05447953323</v>
+        <v>3985835.594966232</v>
       </c>
       <c r="I17">
-        <v>-1026.798761596045</v>
+        <v>1115390.135851299</v>
       </c>
       <c r="J17">
-        <v>1314.231051215671</v>
+        <v>4842490.601121576</v>
       </c>
       <c r="K17">
-        <v>2779.772866115046</v>
+        <v>3987336.227256772</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1052,22 +1052,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>89.50840011322562</v>
+        <v>1116444.223537037</v>
       </c>
       <c r="G18">
-        <v>63.24933319142863</v>
+        <v>4841265.167175582</v>
       </c>
       <c r="H18">
-        <v>1911.696224652102</v>
+        <v>3985870.679338417</v>
       </c>
       <c r="I18">
-        <v>-981.6658441137197</v>
+        <v>1115432.790373177</v>
       </c>
       <c r="J18">
-        <v>1263.89400956578</v>
+        <v>4842441.949562473</v>
       </c>
       <c r="K18">
-        <v>2851.52357458927</v>
+        <v>3987412.793329937</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1087,22 +1087,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>84.93948387617598</v>
+        <v>1116440.042707539</v>
       </c>
       <c r="G19">
-        <v>84.7327717392925</v>
+        <v>4841281.679967465</v>
       </c>
       <c r="H19">
-        <v>1951.659569741808</v>
+        <v>3985902.086911512</v>
       </c>
       <c r="I19">
-        <v>-935.4215700599146</v>
+        <v>1115476.495223414</v>
       </c>
       <c r="J19">
-        <v>1213.556967915888</v>
+        <v>4842393.29800337</v>
       </c>
       <c r="K19">
-        <v>2909.07834773848</v>
+        <v>3987474.210744003</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1122,22 +1122,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>81.00380828309937</v>
+        <v>1116436.44133081</v>
       </c>
       <c r="G20">
-        <v>106.2162102871563</v>
+        <v>4841298.19275935</v>
       </c>
       <c r="H20">
-        <v>1987.832744127108</v>
+        <v>3985930.515753393</v>
       </c>
       <c r="I20">
-        <v>-888.0385733014867</v>
+        <v>1115521.276265381</v>
       </c>
       <c r="J20">
-        <v>1163.219926265997</v>
+        <v>4842344.646444267</v>
       </c>
       <c r="K20">
-        <v>2952.437185562676</v>
+        <v>3987520.479498972</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1157,22 +1157,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>77.56776012715959</v>
+        <v>1116433.297142836</v>
       </c>
       <c r="G21">
-        <v>127.6996488350202</v>
+        <v>4841314.705551235</v>
       </c>
       <c r="H21">
-        <v>2020.872808597288</v>
+        <v>3985956.482254385</v>
       </c>
       <c r="I21">
-        <v>-839.4888138394405</v>
+        <v>1115567.159999309</v>
       </c>
       <c r="J21">
-        <v>1112.882884616105</v>
+        <v>4842295.994885164</v>
       </c>
       <c r="K21">
-        <v>2981.600088061858</v>
+        <v>3987551.599594842</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1192,22 +1192,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>74.53405436221114</v>
+        <v>1116430.521122027</v>
       </c>
       <c r="G22">
-        <v>149.183087382884</v>
+        <v>4841331.218343119</v>
       </c>
       <c r="H22">
-        <v>2051.279508534324</v>
+        <v>3985980.379169137</v>
       </c>
       <c r="I22">
-        <v>-789.7435612156007</v>
+        <v>1115614.173577972</v>
       </c>
       <c r="J22">
-        <v>1062.545842966214</v>
+        <v>4842247.343326061</v>
       </c>
       <c r="K22">
-        <v>2996.567055236026</v>
+        <v>3987567.571031613</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1227,22 +1227,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>71.82997006116231</v>
+        <v>1116428.046724419</v>
       </c>
       <c r="G23">
-        <v>170.6665259307479</v>
+        <v>4841347.731135004</v>
       </c>
       <c r="H23">
-        <v>2079.441803103383</v>
+        <v>3986002.512184359</v>
       </c>
       <c r="I23">
-        <v>-738.7733775106922</v>
+        <v>1115662.344822758</v>
       </c>
       <c r="J23">
-        <v>1012.208801316322</v>
+        <v>4842198.691766959</v>
       </c>
       <c r="K23">
-        <v>2997.33808708518</v>
+        <v>3987568.393809287</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1262,22 +1262,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>69.39992326334223</v>
+        <v>1116425.823087388</v>
       </c>
       <c r="G24">
-        <v>192.1499644786117</v>
+        <v>4841364.243926888</v>
       </c>
       <c r="H24">
-        <v>2105.668370166969</v>
+        <v>3986023.12389292</v>
       </c>
       <c r="I24">
-        <v>-686.5480999237597</v>
+        <v>1115711.70224013</v>
       </c>
       <c r="J24">
-        <v>961.8717596664302</v>
+        <v>4842150.040207855</v>
       </c>
       <c r="K24">
-        <v>2983.91318360932</v>
+        <v>3987554.067927861</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1297,22 +1297,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>67.20060835205244</v>
+        <v>1116423.810583727</v>
       </c>
       <c r="G25">
-        <v>213.6334030264755</v>
+        <v>4841380.756718772</v>
       </c>
       <c r="H25">
-        <v>2130.20828465009</v>
+        <v>3986042.410045171</v>
       </c>
       <c r="I25">
-        <v>-633.0368229226228</v>
+        <v>1115762.275038498</v>
       </c>
       <c r="J25">
-        <v>911.5347180165387</v>
+        <v>4842101.388648752</v>
       </c>
       <c r="K25">
-        <v>2956.292344808446</v>
+        <v>3987524.593387338</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1332,22 +1332,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>65.1977214659605</v>
+        <v>1116421.977823365</v>
       </c>
       <c r="G26">
-        <v>235.1168415743394</v>
+        <v>4841397.269510658</v>
       </c>
       <c r="H26">
-        <v>2153.265440034088</v>
+        <v>3986060.53088294</v>
       </c>
       <c r="I26">
-        <v>-578.2078799548054</v>
+        <v>1115814.093145498</v>
       </c>
       <c r="J26">
-        <v>861.1976763666471</v>
+        <v>4842052.73708965</v>
       </c>
       <c r="K26">
-        <v>2914.475570682558</v>
+        <v>3987479.970187716</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1367,22 +1367,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>63.36369177662708</v>
+        <v>1116420.29957736</v>
       </c>
       <c r="G27">
-        <v>256.6002801222032</v>
+        <v>4841413.782302542</v>
       </c>
       <c r="H27">
-        <v>2175.008855765351</v>
+        <v>3986077.619240217</v>
       </c>
       <c r="I27">
-        <v>-522.0288247081082</v>
+        <v>1115867.187225712</v>
       </c>
       <c r="J27">
-        <v>810.8606347167554</v>
+        <v>4842004.085530546</v>
       </c>
       <c r="K27">
-        <v>2858.462861231656</v>
+        <v>3987420.198328996</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1402,22 +1402,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>61.67607397216371</v>
+        <v>1116418.755306917</v>
       </c>
       <c r="G28">
-        <v>278.0837186700671</v>
+        <v>4841430.295094426</v>
       </c>
       <c r="H28">
-        <v>2195.58020325461</v>
+        <v>3986093.786457913</v>
       </c>
       <c r="I28">
-        <v>-464.4664119097445</v>
+        <v>1115921.588698806</v>
       </c>
       <c r="J28">
-        <v>760.523593066864</v>
+        <v>4841955.433971443</v>
       </c>
       <c r="K28">
-        <v>2788.254216455739</v>
+        <v>3987345.277811178</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1437,22 +1437,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>60.11638584123632</v>
+        <v>1116417.328099718</v>
       </c>
       <c r="G29">
-        <v>299.567157217931</v>
+        <v>4841446.807886311</v>
       </c>
       <c r="H29">
-        <v>2215.099405194636</v>
+        <v>3986109.126784413</v>
       </c>
       <c r="I29">
-        <v>-405.486577652669</v>
+        <v>1115977.329758125</v>
       </c>
       <c r="J29">
-        <v>710.1865514169723</v>
+        <v>4841906.782412341</v>
       </c>
       <c r="K29">
-        <v>2703.849636354809</v>
+        <v>3987255.208634262</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1472,22 +1472,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>58.6692523888859</v>
+        <v>1116416.00388673</v>
       </c>
       <c r="G30">
-        <v>321.0505957657948</v>
+        <v>4841463.320678195</v>
       </c>
       <c r="H30">
-        <v>2233.668871362555</v>
+        <v>3986123.720704534</v>
       </c>
       <c r="I30">
-        <v>-345.0544192374659</v>
+        <v>1116034.44338975</v>
       </c>
       <c r="J30">
-        <v>659.8495097670806</v>
+        <v>4841858.130853238</v>
       </c>
       <c r="K30">
-        <v>2605.249120928865</v>
+        <v>3987149.990798247</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1507,22 +1507,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>57.32176538439334</v>
+        <v>1116414.770856155</v>
       </c>
       <c r="G31">
-        <v>342.5340343136586</v>
+        <v>4841479.83347008</v>
       </c>
       <c r="H31">
-        <v>2251.376750913524</v>
+        <v>3986137.637495535</v>
       </c>
       <c r="I31">
-        <v>-283.1341745178549</v>
+        <v>1116092.96339201</v>
       </c>
       <c r="J31">
-        <v>609.5124681171892</v>
+        <v>4841809.479294134</v>
       </c>
       <c r="K31">
-        <v>2492.452670177907</v>
+        <v>3987029.624303134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1542,22 +1542,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>56.06299709700608</v>
+        <v>1116413.619008471</v>
       </c>
       <c r="G32">
-        <v>364.0174728615225</v>
+        <v>4841496.346261965</v>
       </c>
       <c r="H32">
-        <v>2268.299463080147</v>
+        <v>3986150.937216021</v>
       </c>
       <c r="I32">
-        <v>-219.6892007376041</v>
+        <v>1116152.924395489</v>
       </c>
       <c r="J32">
-        <v>559.1754264672975</v>
+        <v>4841760.827735032</v>
       </c>
       <c r="K32">
-        <v>2365.460284101934</v>
+        <v>3986894.109148922</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1577,22 +1577,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>54.88362621228977</v>
+        <v>1116412.539814122</v>
       </c>
       <c r="G33">
-        <v>385.5009114093863</v>
+        <v>4841512.859053848</v>
       </c>
       <c r="H33">
-        <v>2284.503690264308</v>
+        <v>3986163.672272323</v>
       </c>
       <c r="I33">
-        <v>-154.6819528463199</v>
+        <v>1116214.361883514</v>
       </c>
       <c r="J33">
-        <v>508.8383848174061</v>
+        <v>4841712.176175929</v>
       </c>
       <c r="K33">
-        <v>2224.271962700948</v>
+        <v>3986743.445335612</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1612,22 +1612,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>53.77564658946986</v>
+        <v>1116411.525947014</v>
       </c>
       <c r="G34">
-        <v>406.9843499572501</v>
+        <v>4841529.371845733</v>
       </c>
       <c r="H34">
-        <v>2300.047965001726</v>
+        <v>3986175.888665718</v>
       </c>
       <c r="I34">
-        <v>-88.0739612812841</v>
+        <v>1116277.312213161</v>
       </c>
       <c r="J34">
-        <v>458.5013431675144</v>
+        <v>4841663.524616826</v>
       </c>
       <c r="K34">
-        <v>2068.887705974947</v>
+        <v>3986577.632863204</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1647,22 +1647,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>52.73213802771772</v>
+        <v>1116410.571074753</v>
       </c>
       <c r="G35">
-        <v>428.467788505114</v>
+        <v>4841545.884637618</v>
       </c>
       <c r="H35">
-        <v>2314.983946229388</v>
+        <v>3986187.626995457</v>
       </c>
       <c r="I35">
-        <v>-19.82580920218823</v>
+        <v>1116341.812636763</v>
       </c>
       <c r="J35">
-        <v>408.1643015176227</v>
+        <v>4841614.873057723</v>
       </c>
       <c r="K35">
-        <v>1899.307513923933</v>
+        <v>3986396.671731697</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1682,22 +1682,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>51.74708402629005</v>
+        <v>1116409.669691884</v>
       </c>
       <c r="G36">
-        <v>449.9512270529779</v>
+        <v>4841562.397429503</v>
       </c>
       <c r="H36">
-        <v>2329.35745510788</v>
+        <v>3986198.923272827</v>
       </c>
       <c r="I36">
-        <v>50.10289083470695</v>
+        <v>1116407.901323956</v>
       </c>
       <c r="J36">
-        <v>357.8272598677313</v>
+        <v>4841566.22149862</v>
       </c>
       <c r="K36">
-        <v>1715.531386547905</v>
+        <v>3986200.561941092</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1717,22 +1717,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>50.81522556634646</v>
+        <v>1116408.816986093</v>
       </c>
       <c r="G37">
-        <v>471.4346656008416</v>
+        <v>4841578.910221387</v>
       </c>
       <c r="H37">
-        <v>2343.209322789512</v>
+        <v>3986209.809587416</v>
       </c>
       <c r="I37">
-        <v>121.7535207767862</v>
+        <v>1116475.617384271</v>
       </c>
       <c r="J37">
-        <v>307.4902182178396</v>
+        <v>4841517.569939517</v>
       </c>
       <c r="K37">
-        <v>1517.559323846862</v>
+        <v>3985989.303491389</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1752,22 +1752,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>49.93194279464446</v>
+        <v>1116408.008729938</v>
       </c>
       <c r="G38">
-        <v>492.9181041487055</v>
+        <v>4841595.423013271</v>
       </c>
       <c r="H38">
-        <v>2356.576089670419</v>
+        <v>3986220.314656672</v>
       </c>
       <c r="I38">
-        <v>195.1684815638189</v>
+        <v>1116545.000890273</v>
       </c>
       <c r="J38">
-        <v>257.1531765679482</v>
+        <v>4841468.918380414</v>
       </c>
       <c r="K38">
-        <v>1305.391325820806</v>
+        <v>3985762.896382587</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1787,22 +1787,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>49.09315852974506</v>
+        <v>1116407.241192559</v>
       </c>
       <c r="G39">
-        <v>514.4015426965694</v>
+        <v>4841611.935805156</v>
       </c>
       <c r="H39">
-        <v>2369.490586293905</v>
+        <v>3986230.464282429</v>
       </c>
       <c r="I39">
-        <v>270.391218219706</v>
+        <v>1116616.092901279</v>
       </c>
       <c r="J39">
-        <v>206.8161349180565</v>
+        <v>4841420.266821311</v>
       </c>
       <c r="K39">
-        <v>1079.027392469735</v>
+        <v>3985521.340614688</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1822,22 +1822,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>48.29525898970239</v>
+        <v>1116406.511067128</v>
       </c>
       <c r="G40">
-        <v>535.8849812444332</v>
+        <v>4841628.448597041</v>
       </c>
       <c r="H40">
-        <v>2381.982419156823</v>
+        <v>3986240.281732717</v>
       </c>
       <c r="I40">
-        <v>347.4662455620963</v>
+        <v>1116688.935487653</v>
       </c>
       <c r="J40">
-        <v>156.4790932681648</v>
+        <v>4841371.615262209</v>
       </c>
       <c r="K40">
-        <v>838.4675237936501</v>
+        <v>3985264.63618769</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1857,22 +1857,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>47.53502822403813</v>
+        <v>1116405.815410862</v>
       </c>
       <c r="G41">
-        <v>557.368419792297</v>
+        <v>4841644.961388925</v>
       </c>
       <c r="H41">
-        <v>2394.078379509679</v>
+        <v>3986249.788063032</v>
       </c>
       <c r="I41">
-        <v>426.4391745450668</v>
+        <v>1116763.571755702</v>
       </c>
       <c r="J41">
-        <v>106.1420516182734</v>
+        <v>4841322.963703105</v>
       </c>
       <c r="K41">
-        <v>583.7117197925519</v>
+        <v>3984992.783101593</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1892,22 +1892,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>46.8095935361747</v>
+        <v>1116405.151595072</v>
       </c>
       <c r="G42">
-        <v>578.8518583401608</v>
+        <v>4841661.474180809</v>
       </c>
       <c r="H42">
-        <v>2405.802789349216</v>
+        <v>3986259.002388265</v>
       </c>
       <c r="I42">
-        <v>507.3567392504822</v>
+        <v>1116840.045873188</v>
       </c>
       <c r="J42">
-        <v>55.80500996838172</v>
+        <v>4841274.312144003</v>
       </c>
       <c r="K42">
-        <v>314.7599804664388</v>
+        <v>3984705.781356398</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,22 +1927,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>46.11637978409865</v>
+        <v>1116404.51726335</v>
       </c>
       <c r="G43">
-        <v>600.3352968880248</v>
+        <v>4841677.986972694</v>
       </c>
       <c r="H43">
-        <v>2417.177795838686</v>
+        <v>3986267.94211408</v>
       </c>
       <c r="I43">
-        <v>590.2668245439733</v>
+        <v>1116918.403095462</v>
       </c>
       <c r="J43">
-        <v>5.467968318490041</v>
+        <v>4841225.6605849</v>
       </c>
       <c r="K43">
-        <v>31.61230581531193</v>
+        <v>3984403.630952106</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1962,22 +1962,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>45.45307090186243</v>
+        <v>1116403.910296359</v>
       </c>
       <c r="G44">
-        <v>621.8187354358886</v>
+        <v>4841694.499764578</v>
       </c>
       <c r="H44">
-        <v>2428.223623114016</v>
+        <v>3986276.623134819</v>
       </c>
       <c r="I44">
-        <v>675.218494411936</v>
+        <v>1116998.689792247</v>
       </c>
       <c r="J44">
-        <v>-44.8690733314014</v>
+        <v>4841177.009025796</v>
       </c>
       <c r="K44">
-        <v>-265.7313041608282</v>
+        <v>3984086.331888714</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1997,22 +1997,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>44.81757733148888</v>
+        <v>1116403.328782029</v>
       </c>
       <c r="G45">
-        <v>643.3021739837524</v>
+        <v>4841711.012556463</v>
       </c>
       <c r="H45">
-        <v>2438.958788669608</v>
+        <v>3986285.060003558</v>
       </c>
       <c r="I45">
-        <v>762.2620209962946</v>
+        <v>1117080.953475078</v>
       </c>
       <c r="J45">
-        <v>-95.20611498129307</v>
+        <v>4841128.357466694</v>
       </c>
       <c r="K45">
-        <v>-577.2708494619832</v>
+        <v>3983753.884166225</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2032,22 +2032,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>44.20800832173371</v>
+        <v>1116402.77099021</v>
       </c>
       <c r="G46">
-        <v>664.7856125316163</v>
+        <v>4841727.525348347</v>
       </c>
       <c r="H46">
-        <v>2449.400290139439</v>
+        <v>3986293.266078898</v>
       </c>
       <c r="I46">
-        <v>851.4489143442174</v>
+        <v>1117165.242825418</v>
       </c>
       <c r="J46">
-        <v>-145.5431566311848</v>
+        <v>4841079.705907591</v>
       </c>
       <c r="K46">
-        <v>-903.0063300881529</v>
+        <v>3983406.287784636</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2067,22 +2067,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>43.62264825709471</v>
+        <v>1116402.235351013</v>
       </c>
       <c r="G47">
-        <v>686.2690510794801</v>
+        <v>4841744.038140232</v>
       </c>
       <c r="H47">
-        <v>2459.563767204701</v>
+        <v>3986301.253652213</v>
       </c>
       <c r="I47">
-        <v>942.8319528903953</v>
+        <v>1117251.607723464</v>
       </c>
       <c r="J47">
-        <v>-195.8801982810764</v>
+        <v>4841031.054348487</v>
       </c>
       <c r="K47">
-        <v>-1242.937746039336</v>
+        <v>3983043.542743951</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2102,22 +2102,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>43.05993634208541</v>
+        <v>1116401.720436217</v>
       </c>
       <c r="G48">
-        <v>707.7524896273439</v>
+        <v>4841760.550932117</v>
       </c>
       <c r="H48">
-        <v>2469.463642499932</v>
+        <v>3986309.034058389</v>
       </c>
       <c r="I48">
-        <v>1036.465214689918</v>
+        <v>1117340.099277672</v>
       </c>
       <c r="J48">
-        <v>-246.2172399309676</v>
+        <v>4840982.402789385</v>
       </c>
       <c r="K48">
-        <v>-1597.065097315531</v>
+        <v>3982665.649044165</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2137,22 +2137,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>42.51844909292968</v>
+        <v>1116401.22494325</v>
       </c>
       <c r="G49">
-        <v>729.2359281752078</v>
+        <v>4841777.063724001</v>
       </c>
       <c r="H49">
-        <v>2479.113244704142</v>
+        <v>3986316.617772562</v>
       </c>
       <c r="I49">
-        <v>1132.404109420235</v>
+        <v>1117430.769854991</v>
       </c>
       <c r="J49">
-        <v>-296.5542815808593</v>
+        <v>4840933.751230282</v>
       </c>
       <c r="K49">
-        <v>-1965.388383916742</v>
+        <v>3982272.606685283</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2172,22 +2172,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>41.99688518949872</v>
+        <v>1116400.747681326</v>
       </c>
       <c r="G50">
-        <v>750.7193667230716</v>
+        <v>4841793.576515886</v>
       </c>
       <c r="H50">
-        <v>2488.524916453275</v>
+        <v>3986324.014494928</v>
       </c>
       <c r="I50">
-        <v>1230.70541117112</v>
+        <v>1117523.67311186</v>
       </c>
       <c r="J50">
-        <v>-346.891323230751</v>
+        <v>4840885.099671178</v>
       </c>
       <c r="K50">
-        <v>-2347.907605842968</v>
+        <v>3981864.415667301</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2207,22 +2207,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>41.49405232051937</v>
+        <v>1116400.287559411</v>
       </c>
       <c r="G51">
-        <v>772.2028052709354</v>
+        <v>4841810.08930777</v>
       </c>
       <c r="H51">
-        <v>2497.710109266094</v>
+        <v>3986331.233225342</v>
       </c>
       <c r="I51">
-        <v>1331.42729204208</v>
+        <v>1117618.864025961</v>
       </c>
       <c r="J51">
-        <v>-397.2283648806426</v>
+        <v>4840836.448112076</v>
       </c>
       <c r="K51">
-        <v>-2744.622763094207</v>
+        <v>3981441.075990222</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2242,22 +2242,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>41.0088557193713</v>
+        <v>1116399.843575727</v>
       </c>
       <c r="G52">
-        <v>793.6862438187993</v>
+        <v>4841826.602099654</v>
       </c>
       <c r="H52">
-        <v>2506.679467314948</v>
+        <v>3986338.282329162</v>
       </c>
       <c r="I52">
-        <v>1434.629356567058</v>
+        <v>1117716.398928747</v>
       </c>
       <c r="J52">
-        <v>-447.5654065305343</v>
+        <v>4840787.796552973</v>
       </c>
       <c r="K52">
-        <v>-3155.533855670461</v>
+        <v>3981002.587654043</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2277,22 +2277,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>40.54028813960279</v>
+        <v>1116399.414808584</v>
       </c>
       <c r="G53">
-        <v>815.1696823666632</v>
+        <v>4841843.114891539</v>
       </c>
       <c r="H53">
-        <v>2515.442901578389</v>
+        <v>3986345.16959552</v>
       </c>
       <c r="I53">
-        <v>1540.372676986804</v>
+        <v>1117816.335538785</v>
       </c>
       <c r="J53">
-        <v>-497.9024481804255</v>
+        <v>4840739.144993871</v>
       </c>
       <c r="K53">
-        <v>-3580.640883571725</v>
+        <v>3980548.950658767</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2312,22 +2312,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>40.08742106128737</v>
+        <v>1116399.000408332</v>
       </c>
       <c r="G54">
-        <v>836.653120914527</v>
+        <v>4841859.627683424</v>
       </c>
       <c r="H54">
-        <v>2524.009655671149</v>
+        <v>3986351.902289061</v>
       </c>
       <c r="I54">
-        <v>1648.719829389815</v>
+        <v>1117918.732995904</v>
       </c>
       <c r="J54">
-        <v>-548.2394898303172</v>
+        <v>4840690.493434767</v>
       </c>
       <c r="K54">
-        <v>-4019.943846798007</v>
+        <v>3980080.165004393</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2347,22 +2347,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G55">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H55">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I55">
-        <v>-971.3177783002944</v>
+        <v>1114859.868770419</v>
       </c>
       <c r="J55">
-        <v>1494.907295739161</v>
+        <v>4843218.894745115</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.101755764</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2382,22 +2382,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G56">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H56">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I56">
-        <v>-952.1413789925521</v>
+        <v>1114889.482727339</v>
       </c>
       <c r="J56">
-        <v>1458.542488638041</v>
+        <v>4843170.243200877</v>
       </c>
       <c r="K56">
-        <v>313.2496036628332</v>
+        <v>3984674.897807257</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2417,22 +2417,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G57">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H57">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I57">
-        <v>-932.4927784938205</v>
+        <v>1114919.825900705</v>
       </c>
       <c r="J57">
-        <v>1422.177681536922</v>
+        <v>4843121.591656637</v>
       </c>
       <c r="K57">
-        <v>610.8791462024025</v>
+        <v>3984963.545195072</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2452,22 +2452,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G58">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H58">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I58">
-        <v>-912.3603492841886</v>
+        <v>1114950.9162468</v>
       </c>
       <c r="J58">
-        <v>1385.812874435803</v>
+        <v>4843072.9401124</v>
       </c>
       <c r="K58">
-        <v>892.88862761871</v>
+        <v>3985237.043919208</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2487,22 +2487,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G59">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H59">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I59">
-        <v>-891.732177526765</v>
+        <v>1114982.772164064</v>
       </c>
       <c r="J59">
-        <v>1349.448067334683</v>
+        <v>4843024.288568161</v>
       </c>
       <c r="K59">
-        <v>1159.278047911754</v>
+        <v>3985495.393979666</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2522,22 +2522,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G60">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H60">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I60">
-        <v>-870.5960560173844</v>
+        <v>1115015.412503985</v>
       </c>
       <c r="J60">
-        <v>1313.083260233564</v>
+        <v>4842975.637023924</v>
       </c>
       <c r="K60">
-        <v>1410.047407081536</v>
+        <v>3985738.595376445</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2557,22 +2557,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G61">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H61">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I61">
-        <v>-848.9394769607107</v>
+        <v>1115048.856582247</v>
       </c>
       <c r="J61">
-        <v>1276.718453132445</v>
+        <v>4842926.985479685</v>
       </c>
       <c r="K61">
-        <v>1645.196705128055</v>
+        <v>3985966.648109546</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2592,22 +2592,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G62">
-        <v>-93.9093797048701</v>
+        <v>4841123.498611197</v>
       </c>
       <c r="H62">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I62">
-        <v>-826.749624568454</v>
+        <v>1115083.124190168</v>
       </c>
       <c r="J62">
-        <v>1240.353646031325</v>
+        <v>4842878.333935447</v>
       </c>
       <c r="K62">
-        <v>1864.725942051311</v>
+        <v>3986179.552178968</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2627,22 +2627,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>202.4137939723287</v>
+        <v>1116580.833818614</v>
       </c>
       <c r="G63">
-        <v>-78.40229774046362</v>
+        <v>4841140.011426776</v>
       </c>
       <c r="H63">
-        <v>866.5458393769222</v>
+        <v>3985227.003361422</v>
       </c>
       <c r="I63">
-        <v>-804.0133674753279</v>
+        <v>1115118.235606409</v>
       </c>
       <c r="J63">
-        <v>1203.988838930206</v>
+        <v>4842829.682391209</v>
       </c>
       <c r="K63">
-        <v>2068.635117851305</v>
+        <v>3986377.307584711</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2662,22 +2662,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>157.0967169989147</v>
+        <v>1116532.153153262</v>
       </c>
       <c r="G64">
-        <v>-62.89521577605715</v>
+        <v>4841156.524242355</v>
       </c>
       <c r="H64">
-        <v>1067.578643077048</v>
+        <v>3985426.257701949</v>
       </c>
       <c r="I64">
-        <v>-780.7172509682562</v>
+        <v>1115154.211608973</v>
       </c>
       <c r="J64">
-        <v>1167.624031829087</v>
+        <v>4842781.03084697</v>
       </c>
       <c r="K64">
-        <v>2256.924232528034</v>
+        <v>3986559.914326776</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2697,22 +2697,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>130.475207627019</v>
+        <v>1116503.555704454</v>
       </c>
       <c r="G65">
-        <v>-47.38813381165069</v>
+        <v>4841173.037057933</v>
       </c>
       <c r="H65">
-        <v>1187.324062168742</v>
+        <v>3985544.943777421</v>
       </c>
       <c r="I65">
-        <v>-756.8474890242323</v>
+        <v>1115191.073487503</v>
       </c>
       <c r="J65">
-        <v>1131.259224727967</v>
+        <v>4842732.379302732</v>
       </c>
       <c r="K65">
-        <v>2429.593286081502</v>
+        <v>3986727.372405163</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2732,22 +2732,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>113.6697578587357</v>
+        <v>1116485.502896751</v>
       </c>
       <c r="G66">
-        <v>-31.88105184724421</v>
+        <v>4841189.549873513</v>
       </c>
       <c r="H66">
-        <v>1272.898019910099</v>
+        <v>3985629.760693876</v>
       </c>
       <c r="I66">
-        <v>-732.3899561521148</v>
+        <v>1115228.843055879</v>
       </c>
       <c r="J66">
-        <v>1094.894417626848</v>
+        <v>4842683.727758493</v>
       </c>
       <c r="K66">
-        <v>2586.642278511708</v>
+        <v>3986879.68181987</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2767,22 +2767,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>101.9497054076605</v>
+        <v>1116472.91294194</v>
       </c>
       <c r="G67">
-        <v>-16.37396988283773</v>
+        <v>4841206.062689091</v>
       </c>
       <c r="H67">
-        <v>1339.534414957013</v>
+        <v>3985695.807581278</v>
       </c>
       <c r="I67">
-        <v>-707.3301790335394</v>
+        <v>1115267.542665129</v>
       </c>
       <c r="J67">
-        <v>1058.529610525729</v>
+        <v>4842635.076214256</v>
       </c>
       <c r="K67">
-        <v>2728.07120981865</v>
+        <v>3987016.8425709</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2802,22 +2802,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>93.20619530363274</v>
+        <v>1116463.520458624</v>
       </c>
       <c r="G68">
-        <v>-0.8668879184312728</v>
+        <v>4841222.57550467</v>
       </c>
       <c r="H68">
-        <v>1394.114791290378</v>
+        <v>3985749.905105124</v>
       </c>
       <c r="I68">
-        <v>-681.6533279579912</v>
+        <v>1115307.195216654</v>
       </c>
       <c r="J68">
-        <v>1022.164803424609</v>
+        <v>4842586.424670017</v>
       </c>
       <c r="K68">
-        <v>2853.88008000233</v>
+        <v>3987138.85465825</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2837,22 +2837,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>86.36999139727045</v>
+        <v>1116456.176848293</v>
       </c>
       <c r="G69">
-        <v>14.6401940459752</v>
+        <v>4841239.088320249</v>
       </c>
       <c r="H69">
-        <v>1440.34038587037</v>
+        <v>3985795.721758894</v>
       </c>
       <c r="I69">
-        <v>-655.3442080469775</v>
+        <v>1115347.82417578</v>
       </c>
       <c r="J69">
-        <v>985.7999963234899</v>
+        <v>4842537.773125779</v>
       </c>
       <c r="K69">
-        <v>2964.068889062746</v>
+        <v>3987245.718081922</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2872,22 +2872,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>80.83900467669537</v>
+        <v>1116450.23533283</v>
       </c>
       <c r="G70">
-        <v>30.14727601038168</v>
+        <v>4841255.601135828</v>
       </c>
       <c r="H70">
-        <v>1480.432670233072</v>
+        <v>3985835.459361583</v>
       </c>
       <c r="I70">
-        <v>-628.3872502621015</v>
+        <v>1115389.453585647</v>
       </c>
       <c r="J70">
-        <v>949.4351892223708</v>
+        <v>4842489.12158154</v>
       </c>
       <c r="K70">
-        <v>3058.6376369999</v>
+        <v>3987337.432841915</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2907,22 +2907,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>76.246314897643</v>
+        <v>1116445.301757914</v>
       </c>
       <c r="G71">
-        <v>45.65435797478814</v>
+        <v>4841272.113951407</v>
       </c>
       <c r="H71">
-        <v>1515.830190045519</v>
+        <v>3985870.543732574</v>
       </c>
       <c r="I71">
-        <v>-600.7665021917194</v>
+        <v>1115432.108081434</v>
       </c>
       <c r="J71">
-        <v>913.0703821212513</v>
+        <v>4842440.470037302</v>
       </c>
       <c r="K71">
-        <v>3137.586323813792</v>
+        <v>3987413.99893823</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2942,22 +2942,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>72.35435586686633</v>
+        <v>1116441.120924379</v>
       </c>
       <c r="G72">
-        <v>61.16143993919463</v>
+        <v>4841288.626766985</v>
       </c>
       <c r="H72">
-        <v>1547.518093280881</v>
+        <v>3985901.951304601</v>
       </c>
       <c r="I72">
-        <v>-572.4656186107263</v>
+        <v>1115475.812904938</v>
       </c>
       <c r="J72">
-        <v>876.705575020132</v>
+        <v>4842391.818493064</v>
       </c>
       <c r="K72">
-        <v>3200.91494950442</v>
+        <v>3987475.416370867</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2977,22 +2977,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>69.00181286280086</v>
+        <v>1116437.519544171</v>
       </c>
       <c r="G73">
-        <v>76.66852190360109</v>
+        <v>4841305.139582564</v>
       </c>
       <c r="H73">
-        <v>1576.200678461483</v>
+        <v>3985930.380145514</v>
       </c>
       <c r="I73">
-        <v>-543.4678518078867</v>
+        <v>1115520.593919513</v>
       </c>
       <c r="J73">
-        <v>840.3407679190127</v>
+        <v>4842343.166948825</v>
       </c>
       <c r="K73">
-        <v>3248.623514071786</v>
+        <v>3987521.685139825</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3012,22 +3012,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>66.07486958854007</v>
+        <v>1116434.375353161</v>
       </c>
       <c r="G74">
-        <v>92.17560386800756</v>
+        <v>4841321.652398144</v>
       </c>
       <c r="H74">
-        <v>1602.398944984745</v>
+        <v>3985956.346645623</v>
       </c>
       <c r="I74">
-        <v>-513.7560416749836</v>
+        <v>1115566.477625374</v>
       </c>
       <c r="J74">
-        <v>803.9759608178933</v>
+        <v>4842294.515404588</v>
       </c>
       <c r="K74">
-        <v>3280.712017515889</v>
+        <v>3987552.805245104</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3047,22 +3047,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>63.49065531626556</v>
+        <v>1116431.599329671</v>
       </c>
       <c r="G75">
-        <v>107.682685832414</v>
+        <v>4841338.165213722</v>
       </c>
       <c r="H75">
-        <v>1626.509153055382</v>
+        <v>3985980.243559562</v>
       </c>
       <c r="I75">
-        <v>-483.3126055519218</v>
+        <v>1115613.49117528</v>
       </c>
       <c r="J75">
-        <v>767.6111537167741</v>
+        <v>4842245.863860349</v>
       </c>
       <c r="K75">
-        <v>3297.180459836729</v>
+        <v>3987568.776686704</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3082,22 +3082,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>61.18722387444855</v>
+        <v>1116429.124929673</v>
       </c>
       <c r="G76">
-        <v>123.1897677968205</v>
+        <v>4841354.678029302</v>
       </c>
       <c r="H76">
-        <v>1648.839717806329</v>
+        <v>3986002.376574031</v>
       </c>
       <c r="I76">
-        <v>-452.1195278217771</v>
+        <v>1115661.662390601</v>
       </c>
       <c r="J76">
-        <v>731.2463466156547</v>
+        <v>4842197.212316112</v>
       </c>
       <c r="K76">
-        <v>3298.028841034306</v>
+        <v>3987569.599464627</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3117,22 +3117,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>59.11722694535337</v>
+        <v>1116426.901290495</v>
       </c>
       <c r="G77">
-        <v>138.696849761227</v>
+        <v>4841371.19084488</v>
       </c>
       <c r="H77">
-        <v>1669.635397383231</v>
+        <v>3986022.98828189</v>
       </c>
       <c r="I77">
-        <v>-420.1583492496331</v>
+        <v>1115711.019777782</v>
       </c>
       <c r="J77">
-        <v>694.8815395145353</v>
+        <v>4842148.560771872</v>
       </c>
       <c r="K77">
-        <v>3283.257161108621</v>
+        <v>3987555.27357887</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3152,22 +3152,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>57.24377532435287</v>
+        <v>1116424.88878489</v>
       </c>
       <c r="G78">
-        <v>154.2039317256335</v>
+        <v>4841387.703660458</v>
       </c>
       <c r="H78">
-        <v>1689.093689320497</v>
+        <v>3986042.274433485</v>
       </c>
       <c r="I78">
-        <v>-387.410156058895</v>
+        <v>1115761.592545214</v>
       </c>
       <c r="J78">
-        <v>658.5167324134161</v>
+        <v>4842099.909227635</v>
       </c>
       <c r="K78">
-        <v>3252.865420059673</v>
+        <v>3987525.799029435</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3187,22 +3187,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>55.53764780974925</v>
+        <v>1116423.056022758</v>
       </c>
       <c r="G79">
-        <v>169.7110136900399</v>
+        <v>4841404.216476038</v>
       </c>
       <c r="H79">
-        <v>1707.37626569269</v>
+        <v>3986060.395270638</v>
       </c>
       <c r="I79">
-        <v>-353.8555687386203</v>
+        <v>1115813.410620519</v>
       </c>
       <c r="J79">
-        <v>622.1519253122967</v>
+        <v>4842051.257683396</v>
       </c>
       <c r="K79">
-        <v>3206.853617887462</v>
+        <v>3987481.175816321</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3222,22 +3222,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>53.9753586274194</v>
+        <v>1116421.377775132</v>
       </c>
       <c r="G80">
-        <v>185.2180956544464</v>
+        <v>4841420.729291616</v>
       </c>
       <c r="H80">
-        <v>1724.617146108278</v>
+        <v>3986077.483627334</v>
       </c>
       <c r="I80">
-        <v>-319.4747305752383</v>
+        <v>1115866.504668256</v>
       </c>
       <c r="J80">
-        <v>585.7871182111772</v>
+        <v>4842002.606139157</v>
       </c>
       <c r="K80">
-        <v>3145.221754591988</v>
+        <v>3987421.403939528</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3257,22 +3257,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>52.5377880934448</v>
+        <v>1116419.833503198</v>
       </c>
       <c r="G81">
-        <v>200.7251776188529</v>
+        <v>4841437.242107196</v>
       </c>
       <c r="H81">
-        <v>1740.928665256573</v>
+        <v>3986093.65084448</v>
       </c>
       <c r="I81">
-        <v>-284.2472959018742</v>
+        <v>1115920.906108073</v>
       </c>
       <c r="J81">
-        <v>549.4223111100581</v>
+        <v>4841953.954594919</v>
       </c>
       <c r="K81">
-        <v>3067.969830173252</v>
+        <v>3987346.483399058</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3292,22 +3292,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>51.2091924284304</v>
+        <v>1116418.406294621</v>
       </c>
       <c r="G82">
-        <v>216.2322595832593</v>
+        <v>4841453.754922775</v>
       </c>
       <c r="H82">
-        <v>1756.405912742204</v>
+        <v>3986108.991170458</v>
       </c>
       <c r="I82">
-        <v>-248.1524180583237</v>
+        <v>1115976.647133297</v>
       </c>
       <c r="J82">
-        <v>513.0575040089386</v>
+        <v>4841905.303050681</v>
       </c>
       <c r="K82">
-        <v>2975.097844631253</v>
+        <v>3987256.414194909</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3327,22 +3327,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>49.976474686104</v>
+        <v>1116417.082080354</v>
       </c>
       <c r="G83">
-        <v>231.7393415476658</v>
+        <v>4841470.267738353</v>
       </c>
       <c r="H83">
-        <v>1771.13009175526</v>
+        <v>3986123.585090082</v>
       </c>
       <c r="I83">
-        <v>-211.1687370545547</v>
+        <v>1116033.760729986</v>
       </c>
       <c r="J83">
-        <v>476.6926969078193</v>
+        <v>4841856.651506444</v>
       </c>
       <c r="K83">
-        <v>2866.60579796599</v>
+        <v>3987151.196327081</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3362,22 +3362,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>48.82863919429477</v>
+        <v>1116415.849048587</v>
       </c>
       <c r="G84">
-        <v>247.2464235120723</v>
+        <v>4841486.780553932</v>
       </c>
       <c r="H84">
-        <v>1785.171097893635</v>
+        <v>3986137.50188061</v>
       </c>
       <c r="I84">
-        <v>-173.2743669304306</v>
+        <v>1116092.28069645</v>
       </c>
       <c r="J84">
-        <v>440.3278898067001</v>
+        <v>4841807.999962204</v>
       </c>
       <c r="K84">
-        <v>2742.493690177467</v>
+        <v>3987030.829795574</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3397,22 +3397,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>47.75637733840316</v>
+        <v>1116414.697199791</v>
       </c>
       <c r="G85">
-        <v>262.7535054764788</v>
+        <v>4841503.293369511</v>
       </c>
       <c r="H85">
-        <v>1798.589525815825</v>
+        <v>3986150.801600643</v>
       </c>
       <c r="I85">
-        <v>-134.4468828041813</v>
+        <v>1116152.241663252</v>
       </c>
       <c r="J85">
-        <v>403.9630827055806</v>
+        <v>4841759.348417967</v>
       </c>
       <c r="K85">
-        <v>2602.761521265679</v>
+        <v>3986895.314600389</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3432,22 +3432,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>46.75174890416189</v>
+        <v>1116413.6180044</v>
       </c>
       <c r="G86">
-        <v>278.2605874408852</v>
+        <v>4841519.80618509</v>
       </c>
       <c r="H86">
-        <v>1811.438249611666</v>
+        <v>3986163.536656512</v>
       </c>
       <c r="I86">
-        <v>-94.66330760195318</v>
+        <v>1116213.679113697</v>
       </c>
       <c r="J86">
-        <v>367.5982756044614</v>
+        <v>4841710.696873728</v>
       </c>
       <c r="K86">
-        <v>2447.409291230629</v>
+        <v>3986744.650741525</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3467,22 +3467,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>45.80793398718388</v>
+        <v>1116412.604136313</v>
       </c>
       <c r="G87">
-        <v>293.7676694052917</v>
+        <v>4841536.319000669</v>
       </c>
       <c r="H87">
-        <v>1823.763681144926</v>
+        <v>3986175.753049491</v>
       </c>
       <c r="I87">
-        <v>-53.90009846058825</v>
+        <v>1116276.629404838</v>
       </c>
       <c r="J87">
-        <v>331.233468503342</v>
+        <v>4841662.04532949</v>
       </c>
       <c r="K87">
-        <v>2276.437000072316</v>
+        <v>3986578.838218983</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3502,22 +3502,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>44.91903772384888</v>
+        <v>1116411.64926313</v>
       </c>
       <c r="G88">
-        <v>309.2747513696982</v>
+        <v>4841552.831816247</v>
       </c>
       <c r="H88">
-        <v>1835.606782036629</v>
+        <v>3986187.491378832</v>
       </c>
       <c r="I88">
-        <v>-12.13313279558217</v>
+        <v>1116341.129788986</v>
       </c>
       <c r="J88">
-        <v>294.8686614022226</v>
+        <v>4841613.393785251</v>
       </c>
       <c r="K88">
-        <v>2089.84464779074</v>
+        <v>3986397.877032762</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3537,22 +3537,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>44.07993505316066</v>
+        <v>1116410.74787939</v>
       </c>
       <c r="G89">
-        <v>324.7818333341046</v>
+        <v>4841569.344631827</v>
       </c>
       <c r="H89">
-        <v>1847.003884993648</v>
+        <v>3986198.787655816</v>
       </c>
       <c r="I89">
-        <v>30.66230597402097</v>
+        <v>1116407.218435754</v>
       </c>
       <c r="J89">
-        <v>258.5038543011034</v>
+        <v>4841564.742241013</v>
       </c>
       <c r="K89">
-        <v>1887.632234385901</v>
+        <v>3986201.767182863</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3572,22 +3572,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>43.28614616310101</v>
+        <v>1116409.895172775</v>
       </c>
       <c r="G90">
-        <v>340.2889152985111</v>
+        <v>4841585.857447405</v>
       </c>
       <c r="H90">
-        <v>1857.987366024561</v>
+        <v>3986209.673970036</v>
       </c>
       <c r="I90">
-        <v>74.51154305224379</v>
+        <v>1116474.934454648</v>
       </c>
       <c r="J90">
-        <v>222.139047199984</v>
+        <v>4841516.090696775</v>
       </c>
       <c r="K90">
-        <v>1669.7997598578</v>
+        <v>3985990.508669286</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3607,22 +3607,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>42.53373570475676</v>
+        <v>1116409.08691584</v>
       </c>
       <c r="G91">
-        <v>355.7959972629176</v>
+        <v>4841602.370262984</v>
       </c>
       <c r="H91">
-        <v>1868.586198893558</v>
+        <v>3986220.179038934</v>
       </c>
       <c r="I91">
-        <v>119.4405272529598</v>
+        <v>1116544.31791821</v>
       </c>
       <c r="J91">
-        <v>185.7742400988648</v>
+        <v>4841467.439152537</v>
       </c>
       <c r="K91">
-        <v>1436.347224206437</v>
+        <v>3985764.101492029</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3642,22 +3642,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>41.81923059560715</v>
+        <v>1116408.319377719</v>
       </c>
       <c r="G92">
-        <v>371.3030792273241</v>
+        <v>4841618.883078563</v>
       </c>
       <c r="H92">
-        <v>1878.82641573276</v>
+        <v>3986230.328664346</v>
       </c>
       <c r="I92">
-        <v>165.4758463557105</v>
+        <v>1116615.40988573</v>
       </c>
       <c r="J92">
-        <v>149.4094329977454</v>
+        <v>4841418.787608298</v>
       </c>
       <c r="K92">
-        <v>1187.274627431809</v>
+        <v>3985522.545651094</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3677,22 +3677,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>41.13955249266014</v>
+        <v>1116407.589251584</v>
       </c>
       <c r="G93">
-        <v>386.8101611917305</v>
+        <v>4841635.395894142</v>
       </c>
       <c r="H93">
-        <v>1888.731492249851</v>
+        <v>3986240.1461143</v>
       </c>
       <c r="I93">
-        <v>212.6447428396498</v>
+        <v>1116688.252427547</v>
       </c>
       <c r="J93">
-        <v>113.044625896626</v>
+        <v>4841370.13606406</v>
       </c>
       <c r="K93">
-        <v>922.5819695339196</v>
+        <v>3985265.84114648</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3712,22 +3712,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>40.49196193936694</v>
+        <v>1116406.893594646</v>
       </c>
       <c r="G94">
-        <v>402.317243156137</v>
+        <v>4841651.908709721</v>
       </c>
       <c r="H94">
-        <v>1898.322671875573</v>
+        <v>3986249.652444291</v>
       </c>
       <c r="I94">
-        <v>260.9751300049163</v>
+        <v>1116762.888649942</v>
       </c>
       <c r="J94">
-        <v>76.67981879550675</v>
+        <v>4841321.484519822</v>
       </c>
       <c r="K94">
-        <v>642.2692505127678</v>
+        <v>3984993.987978188</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3747,22 +3747,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>39.87401187458486</v>
+        <v>1116406.229778215</v>
       </c>
       <c r="G95">
-        <v>417.8243251205434</v>
+        <v>4841668.4215253</v>
       </c>
       <c r="H95">
-        <v>1907.619240109614</v>
+        <v>3986258.86676921</v>
       </c>
       <c r="I95">
-        <v>310.4956084909876</v>
+        <v>1116839.36272065</v>
       </c>
       <c r="J95">
-        <v>40.31501169438735</v>
+        <v>4841272.832975584</v>
       </c>
       <c r="K95">
-        <v>346.3364703683523</v>
+        <v>3984706.986146217</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3782,22 +3782,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>39.28350870432031</v>
+        <v>1116405.59544588</v>
       </c>
       <c r="G96">
-        <v>433.33140708495</v>
+        <v>4841684.934340879</v>
       </c>
       <c r="H96">
-        <v>1916.638757973568</v>
+        <v>3986267.806494722</v>
       </c>
       <c r="I96">
-        <v>361.2354832017733</v>
+        <v>1116917.719894995</v>
       </c>
       <c r="J96">
-        <v>3.950204593267956</v>
+        <v>4841224.181431345</v>
       </c>
       <c r="K96">
-        <v>34.78362910067422</v>
+        <v>3984404.835650568</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3817,22 +3817,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>38.71847952442869</v>
+        <v>1116404.988478303</v>
       </c>
       <c r="G97">
-        <v>448.8384890493564</v>
+        <v>4841701.447156457</v>
       </c>
       <c r="H97">
-        <v>1925.397261674133</v>
+        <v>3986276.487515166</v>
       </c>
       <c r="I97">
-        <v>413.2247806474828</v>
+        <v>1116998.00654267</v>
       </c>
       <c r="J97">
-        <v>-32.41460250785127</v>
+        <v>4841175.529887107</v>
       </c>
       <c r="K97">
-        <v>-292.3892732902657</v>
+        <v>3984087.53649124</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3852,22 +3852,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>38.17714437799734</v>
+        <v>1116404.406963411</v>
       </c>
       <c r="G98">
-        <v>464.3455710137629</v>
+        <v>4841717.959972036</v>
       </c>
       <c r="H98">
-        <v>1933.909434180654</v>
+        <v>3986284.924383617</v>
       </c>
       <c r="I98">
-        <v>466.4942667135165</v>
+        <v>1117080.270175181</v>
       </c>
       <c r="J98">
-        <v>-68.77940960897067</v>
+        <v>4841126.878342869</v>
       </c>
       <c r="K98">
-        <v>-635.1822368044693</v>
+        <v>3983755.088668234</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3887,22 +3887,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>37.65789265848449</v>
+        <v>1116403.849171054</v>
       </c>
       <c r="G99">
-        <v>479.8526529781694</v>
+        <v>4841734.472787615</v>
       </c>
       <c r="H99">
-        <v>1942.188753328368</v>
+        <v>3986293.130458678</v>
       </c>
       <c r="I99">
-        <v>521.0754648668981</v>
+        <v>1117164.559473963</v>
       </c>
       <c r="J99">
-        <v>-105.1442167100901</v>
+        <v>4841078.22679863</v>
       </c>
       <c r="K99">
-        <v>-993.5952614419365</v>
+        <v>3983407.492181549</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3922,22 +3922,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>37.15926294596016</v>
+        <v>1116403.31353134</v>
       </c>
       <c r="G100">
-        <v>495.3597349425758</v>
+        <v>4841750.985603194</v>
       </c>
       <c r="H100">
-        <v>1950.247620198895</v>
+        <v>3986301.118031722</v>
       </c>
       <c r="I100">
-        <v>577.0006748110251</v>
+        <v>1117250.924319181</v>
       </c>
       <c r="J100">
-        <v>-141.5090238112095</v>
+        <v>4841029.575254392</v>
       </c>
       <c r="K100">
-        <v>-1367.628347202666</v>
+        <v>3983044.747031185</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3957,22 +3957,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>36.67992570147605</v>
+        <v>1116402.798616046</v>
       </c>
       <c r="G101">
-        <v>510.8668169069823</v>
+        <v>4841767.498418774</v>
       </c>
       <c r="H101">
-        <v>1958.097470848114</v>
+        <v>3986308.898437633</v>
       </c>
       <c r="I101">
-        <v>634.3029915997761</v>
+        <v>1117339.41581926</v>
       </c>
       <c r="J101">
-        <v>-177.8738309123285</v>
+        <v>4840980.923710153</v>
       </c>
       <c r="K101">
-        <v>-1757.281494086655</v>
+        <v>3982666.853217143</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3992,22 +3992,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>36.21866835289245</v>
+        <v>1116402.303122601</v>
       </c>
       <c r="G102">
-        <v>526.3738988713889</v>
+        <v>4841784.011234351</v>
       </c>
       <c r="H102">
-        <v>1965.748873908103</v>
+        <v>3986316.482151548</v>
       </c>
       <c r="I102">
-        <v>693.016325222286</v>
+        <v>1117430.086341117</v>
       </c>
       <c r="J102">
-        <v>-214.2386380134479</v>
+        <v>4840932.272165916</v>
       </c>
       <c r="K102">
-        <v>-2162.55470209391</v>
+        <v>3982273.810739423</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4027,22 +4027,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>35.7743823912404</v>
+        <v>1116401.825860216</v>
       </c>
       <c r="G103">
-        <v>541.8809808357953</v>
+        <v>4841800.52404993</v>
       </c>
       <c r="H103">
-        <v>1973.21161615353</v>
+        <v>3986323.878873662</v>
       </c>
       <c r="I103">
-        <v>753.1754206699733</v>
+        <v>1117522.989541159</v>
       </c>
       <c r="J103">
-        <v>-250.6034451145673</v>
+        <v>4840883.620621677</v>
       </c>
       <c r="K103">
-        <v>-2583.447971224428</v>
+        <v>3981865.619598023</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4062,22 +4062,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>35.34605216502045</v>
+        <v>1116401.365737856</v>
       </c>
       <c r="G104">
-        <v>557.3880628002017</v>
+        <v>4841817.03686551</v>
       </c>
       <c r="H104">
-        <v>1980.494777770693</v>
+        <v>3986331.09760383</v>
       </c>
       <c r="I104">
-        <v>814.8158784977069</v>
+        <v>1117618.180397033</v>
       </c>
       <c r="J104">
-        <v>-286.9682522156867</v>
+        <v>4840834.969077439</v>
       </c>
       <c r="K104">
-        <v>-3019.961301478208</v>
+        <v>3981442.279792945</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4097,22 +4097,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>34.93274511460277</v>
+        <v>1116400.921753743</v>
       </c>
       <c r="G105">
-        <v>572.8951447646082</v>
+        <v>4841833.549681088</v>
       </c>
       <c r="H105">
-        <v>1987.606798781381</v>
+        <v>3986338.14670741</v>
       </c>
       <c r="I105">
-        <v>877.9741758912678</v>
+        <v>1117715.715240159</v>
       </c>
       <c r="J105">
-        <v>-323.3330593168061</v>
+        <v>4840786.317533201</v>
       </c>
       <c r="K105">
-        <v>-3472.094692855251</v>
+        <v>3981003.791324189</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4132,22 +4132,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>34.53360323302893</v>
+        <v>1116400.492986187</v>
       </c>
       <c r="G106">
-        <v>588.4022267290146</v>
+        <v>4841850.062496668</v>
       </c>
       <c r="H106">
-        <v>1994.555537840287</v>
+        <v>3986345.033973534</v>
       </c>
       <c r="I106">
-        <v>942.6876882535754</v>
+        <v>1117815.651789067</v>
       </c>
       <c r="J106">
-        <v>-359.6978664179252</v>
+        <v>4840737.665988963</v>
       </c>
       <c r="K106">
-        <v>-3939.848145355554</v>
+        <v>3980550.154191754</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4167,22 +4167,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>34.14783557528582</v>
+        <v>1116400.078585534</v>
       </c>
       <c r="G107">
-        <v>603.9093086934211</v>
+        <v>4841866.575312247</v>
       </c>
       <c r="H107">
-        <v>2001.34832443318</v>
+        <v>3986351.766666846</v>
       </c>
       <c r="I107">
-        <v>1008.994711322466</v>
+        <v>1117918.049183551</v>
       </c>
       <c r="J107">
-        <v>-396.0626735190446</v>
+        <v>4840689.014444724</v>
       </c>
       <c r="K107">
-        <v>-4423.221658979122</v>
+        <v>3980081.368395641</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4190,34 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G108">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H108">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I108">
-        <v>-1650.198810063605</v>
+        <v>1114861.573946481</v>
       </c>
       <c r="J108">
-        <v>1577.748330245118</v>
+        <v>4843221.81881487</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984372.649892224</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4225,34 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G109">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H109">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I109">
-        <v>-1617.619491506998</v>
+        <v>1114891.187948696</v>
       </c>
       <c r="J109">
-        <v>1539.368349194114</v>
+        <v>4843173.167241259</v>
       </c>
       <c r="K109">
-        <v>431.843546243929</v>
+        <v>3984676.446061758</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4260,34 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G110">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H110">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I110">
-        <v>-1584.237937203359</v>
+        <v>1114921.531168471</v>
       </c>
       <c r="J110">
-        <v>1500.98836814311</v>
+        <v>4843124.515667647</v>
       </c>
       <c r="K110">
-        <v>842.1533937723834</v>
+        <v>3984965.093561728</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4295,34 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G111">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H111">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I111">
-        <v>-1550.034392835458</v>
+        <v>1114952.621562118</v>
       </c>
       <c r="J111">
-        <v>1462.608387092105</v>
+        <v>4843075.864094036</v>
       </c>
       <c r="K111">
-        <v>1230.929542585366</v>
+        <v>3985238.592392132</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4330,34 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G112">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H112">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I112">
-        <v>-1514.988617654183</v>
+        <v>1114984.477528106</v>
       </c>
       <c r="J112">
-        <v>1424.228406041101</v>
+        <v>4843027.212520424</v>
       </c>
       <c r="K112">
-        <v>1598.171992682875</v>
+        <v>3985496.942552973</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4365,34 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G113">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H113">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I113">
-        <v>-1479.07987250059</v>
+        <v>1115017.11791795</v>
       </c>
       <c r="J113">
-        <v>1385.848424990097</v>
+        <v>4842978.560946814</v>
       </c>
       <c r="K113">
-        <v>1943.880744064913</v>
+        <v>3985740.144044248</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4400,34 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G114">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H114">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I114">
-        <v>-1442.286907533029</v>
+        <v>1115050.562047365</v>
       </c>
       <c r="J114">
-        <v>1347.468443939093</v>
+        <v>4842929.909373201</v>
       </c>
       <c r="K114">
-        <v>2268.055796731478</v>
+        <v>3985968.196865959</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4435,34 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G115">
-        <v>-129.6976908424407</v>
+        <v>4841123.216465668</v>
       </c>
       <c r="H115">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I115">
-        <v>-1404.58794965205</v>
+        <v>1115084.829707698</v>
       </c>
       <c r="J115">
-        <v>1309.088462888089</v>
+        <v>4842881.25779959</v>
       </c>
       <c r="K115">
-        <v>2570.697150682569</v>
+        <v>3986181.101018106</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4470,34 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>173.7039194690176</v>
+        <v>1116576.477458387</v>
       </c>
       <c r="G116">
-        <v>-108.2809513345375</v>
+        <v>4841139.729280285</v>
       </c>
       <c r="H116">
-        <v>836.565589058416</v>
+        <v>3985224.480414915</v>
       </c>
       <c r="I116">
-        <v>-1365.960689615657</v>
+        <v>1115119.941177642</v>
       </c>
       <c r="J116">
-        <v>1270.708481837085</v>
+        <v>4842832.60622598</v>
       </c>
       <c r="K116">
-        <v>2851.804805918187</v>
+        <v>3986378.856500687</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4505,34 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>134.8145051920574</v>
+        <v>1116527.796982964</v>
       </c>
       <c r="G117">
-        <v>-86.86421182663425</v>
+        <v>4841156.2420949</v>
       </c>
       <c r="H117">
-        <v>1030.643176423426</v>
+        <v>3985423.734629299</v>
       </c>
       <c r="I117">
-        <v>-1326.382268837295</v>
+        <v>1115155.917235231</v>
       </c>
       <c r="J117">
-        <v>1232.328500786081</v>
+        <v>4842783.954652368</v>
       </c>
       <c r="K117">
-        <v>3111.378762438332</v>
+        <v>3986561.463313704</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4540,34 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>111.9689252079598</v>
+        <v>1116499.199645729</v>
       </c>
       <c r="G118">
-        <v>-65.447472318731</v>
+        <v>4841172.754909517</v>
       </c>
       <c r="H118">
-        <v>1146.245712962658</v>
+        <v>3985542.420629634</v>
       </c>
       <c r="I118">
-        <v>-1285.829265858746</v>
+        <v>1115192.779170141</v>
       </c>
       <c r="J118">
-        <v>1193.948519735076</v>
+        <v>4842735.303078756</v>
       </c>
       <c r="K118">
-        <v>3349.419020243005</v>
+        <v>3986728.921457157</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4575,34 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>97.54711908545038</v>
+        <v>1116481.146908459</v>
       </c>
       <c r="G119">
-        <v>-44.03073281082774</v>
+        <v>4841189.267724134</v>
       </c>
       <c r="H119">
-        <v>1228.859032550497</v>
+        <v>3985627.237492393</v>
       </c>
       <c r="I119">
-        <v>-1244.277682489928</v>
+        <v>1115230.548796286</v>
       </c>
       <c r="J119">
-        <v>1155.568538684072</v>
+        <v>4842686.651505144</v>
       </c>
       <c r="K119">
-        <v>3565.925579332206</v>
+        <v>3986881.230931045</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4610,34 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>87.48941003716018</v>
+        <v>1116468.557002768</v>
       </c>
       <c r="G120">
-        <v>-22.61399330292448</v>
+        <v>4841205.78053875</v>
       </c>
       <c r="H120">
-        <v>1293.18998025343</v>
+        <v>3985693.284337983</v>
       </c>
       <c r="I120">
-        <v>-1201.702929607409</v>
+        <v>1115269.248464727</v>
       </c>
       <c r="J120">
-        <v>1117.188557633068</v>
+        <v>4842637.999931534</v>
       </c>
       <c r="K120">
-        <v>3760.898439705933</v>
+        <v>3987018.391735368</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4645,34 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>79.98605789311506</v>
+        <v>1116459.164556098</v>
       </c>
       <c r="G121">
-        <v>-1.197253795021239</v>
+        <v>4841222.293353368</v>
       </c>
       <c r="H121">
-        <v>1345.882016385279</v>
+        <v>3985747.381827582</v>
       </c>
       <c r="I121">
-        <v>-1158.079812603212</v>
+        <v>1115308.9010769</v>
       </c>
       <c r="J121">
-        <v>1078.808576582064</v>
+        <v>4842589.348357922</v>
       </c>
       <c r="K121">
-        <v>3934.337601364187</v>
+        <v>3987140.403870127</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4680,34 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>74.11948432853441</v>
+        <v>1116451.820974418</v>
       </c>
       <c r="G122">
-        <v>20.21948571288202</v>
+        <v>4841238.806167983</v>
       </c>
       <c r="H122">
-        <v>1390.50832465674</v>
+        <v>3985793.198452346</v>
       </c>
       <c r="I122">
-        <v>-1113.382516475319</v>
+        <v>1115349.530098169</v>
       </c>
       <c r="J122">
-        <v>1040.42859553106</v>
+        <v>4842540.69678431</v>
       </c>
       <c r="K122">
-        <v>4086.243064306969</v>
+        <v>3987247.267335321</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4715,34 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>69.37299915556086</v>
+        <v>1116445.879482135</v>
       </c>
       <c r="G123">
-        <v>41.63622522078528</v>
+        <v>4841255.3189826</v>
       </c>
       <c r="H123">
-        <v>1429.213519420236</v>
+        <v>3985832.936029878</v>
       </c>
       <c r="I123">
-        <v>-1067.584590551035</v>
+        <v>1115391.159571708</v>
       </c>
       <c r="J123">
-        <v>1002.048614480056</v>
+        <v>4842492.045210699</v>
       </c>
       <c r="K123">
-        <v>4216.614828534278</v>
+        <v>3987338.98213095</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4750,34 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>65.43172519457899</v>
+        <v>1116440.945926468</v>
       </c>
       <c r="G124">
-        <v>63.05296472868852</v>
+        <v>4841271.831797217</v>
       </c>
       <c r="H124">
-        <v>1463.38637637423</v>
+        <v>3985868.020378659</v>
       </c>
       <c r="I124">
-        <v>-1020.658932834184</v>
+        <v>1115433.814132735</v>
       </c>
       <c r="J124">
-        <v>963.6686334290516</v>
+        <v>4842443.393637088</v>
       </c>
       <c r="K124">
-        <v>4325.452894046114</v>
+        <v>3987415.548257015</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4785,34 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>62.09179205666661</v>
+        <v>1116436.765109244</v>
       </c>
       <c r="G125">
-        <v>84.4697042365918</v>
+        <v>4841288.344611833</v>
       </c>
       <c r="H125">
-        <v>1493.977959913744</v>
+        <v>3985899.427930802</v>
       </c>
       <c r="I125">
-        <v>-972.57777396687</v>
+        <v>1115477.519023085</v>
       </c>
       <c r="J125">
-        <v>925.2886523780473</v>
+        <v>4842394.742063477</v>
       </c>
       <c r="K125">
-        <v>4412.757260842477</v>
+        <v>3987476.965713515</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4820,34 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>59.21476550345543</v>
+        <v>1116433.163743088</v>
       </c>
       <c r="G126">
-        <v>105.886443744495</v>
+        <v>4841304.85742645</v>
       </c>
       <c r="H126">
-        <v>1521.668201649348</v>
+        <v>3985927.856753718</v>
       </c>
       <c r="I126">
-        <v>-923.3126607963029</v>
+        <v>1115522.300106153</v>
       </c>
       <c r="J126">
-        <v>886.9086713270433</v>
+        <v>4842346.090489864</v>
       </c>
       <c r="K126">
-        <v>4478.527928923368</v>
+        <v>3987523.234500451</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4855,34 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>56.70297266155018</v>
+        <v>1116430.019564345</v>
       </c>
       <c r="G127">
-        <v>127.3031832523983</v>
+        <v>4841321.370241066</v>
       </c>
       <c r="H127">
-        <v>1546.96007574351</v>
+        <v>3985953.823237387</v>
       </c>
       <c r="I127">
-        <v>-872.834439536984</v>
+        <v>1115568.183882193</v>
       </c>
       <c r="J127">
-        <v>848.5286902760391</v>
+        <v>4842297.438916254</v>
       </c>
       <c r="K127">
-        <v>4522.764898288785</v>
+        <v>3987554.354617822</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4890,34 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>54.48529698326502</v>
+        <v>1116427.243551685</v>
       </c>
       <c r="G128">
-        <v>148.7199227603016</v>
+        <v>4841337.883055682</v>
       </c>
       <c r="H128">
-        <v>1570.236132820233</v>
+        <v>3985977.720136198</v>
       </c>
       <c r="I128">
-        <v>-821.1132385182659</v>
+        <v>1115615.197504006</v>
       </c>
       <c r="J128">
-        <v>810.1487092250351</v>
+        <v>4842248.787342642</v>
       </c>
       <c r="K128">
-        <v>4545.46816893873</v>
+        <v>3987570.326065628</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4925,34 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>52.5085785896239</v>
+        <v>1116424.769161341</v>
       </c>
       <c r="G129">
-        <v>170.1366622682048</v>
+        <v>4841354.395870299</v>
       </c>
       <c r="H129">
-        <v>1591.794117644573</v>
+        <v>3985999.853136655</v>
       </c>
       <c r="I129">
-        <v>-768.1184505070944</v>
+        <v>1115663.368793004</v>
       </c>
       <c r="J129">
-        <v>771.7687281740309</v>
+        <v>4842200.135769031</v>
       </c>
       <c r="K129">
-        <v>4546.637740873201</v>
+        <v>3987571.14884387</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4960,34 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>50.73218493177953</v>
+        <v>1116422.545530838</v>
       </c>
       <c r="G130">
-        <v>191.5534017761081</v>
+        <v>4841370.908684916</v>
       </c>
       <c r="H130">
-        <v>1611.870320361823</v>
+        <v>3986020.464831466</v>
       </c>
       <c r="I130">
-        <v>-713.818714595459</v>
+        <v>1115712.726255677</v>
       </c>
       <c r="J130">
-        <v>733.3887471230266</v>
+        <v>4842151.484195419</v>
       </c>
       <c r="K130">
-        <v>4526.273614092201</v>
+        <v>3987556.822952547</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4995,34 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>49.12445907912416</v>
+        <v>1116420.533033085</v>
       </c>
       <c r="G131">
-        <v>212.9701412840113</v>
+        <v>4841387.421499532</v>
       </c>
       <c r="H131">
-        <v>1630.655405601254</v>
+        <v>3986039.750970851</v>
       </c>
       <c r="I131">
-        <v>-658.1818976418401</v>
+        <v>1115763.299100461</v>
       </c>
       <c r="J131">
-        <v>695.0087660720227</v>
+        <v>4842102.832621808</v>
       </c>
       <c r="K131">
-        <v>4484.375788595727</v>
+        <v>3987527.348391659</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5030,34 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>47.6603244933108</v>
+        <v>1116418.700278104</v>
       </c>
       <c r="G132">
-        <v>234.3868807919146</v>
+        <v>4841403.934314149</v>
       </c>
       <c r="H132">
-        <v>1648.305452000769</v>
+        <v>3986057.871796532</v>
       </c>
       <c r="I132">
-        <v>-601.1750752556718</v>
+        <v>1115815.117255021</v>
       </c>
       <c r="J132">
-        <v>656.6287850210184</v>
+        <v>4842054.181048197</v>
       </c>
       <c r="K132">
-        <v>4420.944264383781</v>
+        <v>3987482.725161207</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5065,34 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>46.3196265646319</v>
+        <v>1116417.022037026</v>
       </c>
       <c r="G133">
-        <v>255.8036202998178</v>
+        <v>4841420.447128764</v>
       </c>
       <c r="H133">
-        <v>1664.949842436159</v>
+        <v>3986074.96014241</v>
       </c>
       <c r="I133">
-        <v>-542.7645123135591</v>
+        <v>1115868.211383965</v>
       </c>
       <c r="J133">
-        <v>618.2488039700143</v>
+        <v>4842005.529474584</v>
       </c>
       <c r="K133">
-        <v>4335.979041456361</v>
+        <v>3987422.953261191</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5100,34 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>45.08595749809242</v>
+        <v>1116415.477771117</v>
       </c>
       <c r="G134">
-        <v>277.2203598077211</v>
+        <v>4841436.959943381</v>
       </c>
       <c r="H134">
-        <v>1680.697025106314</v>
+        <v>3986091.127349321</v>
       </c>
       <c r="I134">
-        <v>-482.9156429957296</v>
+        <v>1115922.612906989</v>
       </c>
       <c r="J134">
-        <v>579.8688229190102</v>
+        <v>4841956.877900973</v>
       </c>
       <c r="K134">
-        <v>4229.480119813469</v>
+        <v>3987348.032691609</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5135,34 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>43.94580657322958</v>
+        <v>1116414.050568108</v>
       </c>
       <c r="G135">
-        <v>298.6370993156244</v>
+        <v>4841453.472757998</v>
       </c>
       <c r="H135">
-        <v>1695.638799760877</v>
+        <v>3986106.467665587</v>
       </c>
       <c r="I135">
-        <v>-421.593050330898</v>
+        <v>1115978.354017469</v>
       </c>
       <c r="J135">
-        <v>541.488841868006</v>
+        <v>4841908.226327362</v>
       </c>
       <c r="K135">
-        <v>4101.447499455105</v>
+        <v>3987257.963452464</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5170,34 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>42.88793448240573</v>
+        <v>1116412.726359007</v>
       </c>
       <c r="G136">
-        <v>320.0538388235275</v>
+        <v>4841469.985572614</v>
       </c>
       <c r="H136">
-        <v>1709.85356016907</v>
+        <v>3986121.061575972</v>
       </c>
       <c r="I136">
-        <v>-358.760445237446</v>
+        <v>1116035.467701514</v>
       </c>
       <c r="J136">
-        <v>503.1088608170018</v>
+        <v>4841859.574753751</v>
       </c>
       <c r="K136">
-        <v>3951.881180381266</v>
+        <v>3987152.745543753</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5205,34 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>41.90290515253621</v>
+        <v>1116411.493332051</v>
       </c>
       <c r="G137">
-        <v>341.4705783314308</v>
+        <v>4841486.498387231</v>
       </c>
       <c r="H137">
-        <v>1723.40878372143</v>
+        <v>3986134.97835769</v>
       </c>
       <c r="I137">
-        <v>-294.3806450485046</v>
+        <v>1116093.987757484</v>
       </c>
       <c r="J137">
-        <v>464.7288797659978</v>
+        <v>4841810.923180139</v>
       </c>
       <c r="K137">
-        <v>3780.781162591956</v>
+        <v>3987032.378965478</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5240,34 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>40.98273028001266</v>
+        <v>1116410.341487749</v>
       </c>
       <c r="G138">
-        <v>362.8873178393341</v>
+        <v>4841503.011201847</v>
       </c>
       <c r="H138">
-        <v>1736.362968657609</v>
+        <v>3986148.278069303</v>
       </c>
       <c r="I138">
-        <v>-228.4155515082408</v>
+        <v>1116153.948815995</v>
       </c>
       <c r="J138">
-        <v>426.3488987149935</v>
+        <v>4841762.271606528</v>
       </c>
       <c r="K138">
-        <v>3588.147446087172</v>
+        <v>3986896.863717638</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5275,34 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>40.12059587102279</v>
+        <v>1116409.262296568</v>
       </c>
       <c r="G139">
-        <v>384.3040573472373</v>
+        <v>4841519.524016463</v>
       </c>
       <c r="H139">
-        <v>1748.767159760351</v>
+        <v>3986161.013117109</v>
       </c>
       <c r="I139">
-        <v>-160.8261282263208</v>
+        <v>1116215.386360409</v>
       </c>
       <c r="J139">
-        <v>387.9689176639895</v>
+        <v>4841713.620032917</v>
       </c>
       <c r="K139">
-        <v>3373.980030866917</v>
+        <v>3986746.199800233</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5310,34 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>39.3106493396376</v>
+        <v>1116408.248432437</v>
       </c>
       <c r="G140">
-        <v>405.7207968551406</v>
+        <v>4841536.03683108</v>
       </c>
       <c r="H140">
-        <v>1760.666163162681</v>
+        <v>3986173.229502356</v>
       </c>
       <c r="I140">
-        <v>-91.57237757721265</v>
+        <v>1116278.336747833</v>
       </c>
       <c r="J140">
-        <v>349.5889366129853</v>
+        <v>4841664.968459305</v>
       </c>
       <c r="K140">
-        <v>3138.278916931187</v>
+        <v>3986580.387213264</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5345,34 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>38.54783193518856</v>
+        <v>1116407.29356298</v>
       </c>
       <c r="G141">
-        <v>427.1375363630439</v>
+        <v>4841552.549645697</v>
       </c>
       <c r="H141">
-        <v>1772.099523319219</v>
+        <v>3986184.967824264</v>
       </c>
       <c r="I141">
-        <v>-20.6133170306529</v>
+        <v>1116342.837230634</v>
       </c>
       <c r="J141">
-        <v>311.2089555619811</v>
+        <v>4841616.316885693</v>
       </c>
       <c r="K141">
-        <v>2881.044104279985</v>
+        <v>3986399.425956731</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5380,34 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>37.82774552272109</v>
+        <v>1116406.392182757</v>
       </c>
       <c r="G142">
-        <v>448.5542758709472</v>
+        <v>4841569.062460314</v>
       </c>
       <c r="H142">
-        <v>1783.10231591892</v>
+        <v>3986196.264094098</v>
       </c>
       <c r="I142">
-        <v>52.0930451007274</v>
+        <v>1116408.925978484</v>
       </c>
       <c r="J142">
-        <v>272.828974510977</v>
+        <v>4841567.665312083</v>
       </c>
       <c r="K142">
-        <v>2602.275592913311</v>
+        <v>3986203.316030633</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5415,34 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>37.14654569573118</v>
+        <v>1116405.539479468</v>
       </c>
       <c r="G143">
-        <v>469.9710153788504</v>
+        <v>4841585.57527493</v>
       </c>
       <c r="H143">
-        <v>1793.705796843996</v>
+        <v>3986207.150401425</v>
       </c>
       <c r="I143">
-        <v>126.5897345109662</v>
+        <v>1116476.642100949</v>
       </c>
       <c r="J143">
-        <v>234.4489934599729</v>
+        <v>4841519.013738471</v>
       </c>
       <c r="K143">
-        <v>2301.973382831164</v>
+        <v>3985992.05743497</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5450,34 @@
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>36.50085528551267</v>
+        <v>1116404.731225687</v>
       </c>
       <c r="G144">
-        <v>491.3877548867537</v>
+        <v>4841602.088089546</v>
       </c>
       <c r="H144">
-        <v>1803.937937441151</v>
+        <v>3986217.655463673</v>
       </c>
       <c r="I144">
-        <v>202.9208363622352</v>
+        <v>1116546.025670633</v>
       </c>
       <c r="J144">
-        <v>196.0690124089688</v>
+        <v>4841470.36216486</v>
       </c>
       <c r="K144">
-        <v>1980.137474033544</v>
+        <v>3985765.650169742</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5485,34 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>35.88769382302414</v>
+        <v>1116403.963690561</v>
       </c>
       <c r="G145">
-        <v>512.8044943946569</v>
+        <v>4841618.600904163</v>
       </c>
       <c r="H145">
-        <v>1813.823869197897</v>
+        <v>3986227.80508266</v>
       </c>
       <c r="I145">
-        <v>281.1315213732648</v>
+        <v>1116617.117746888</v>
       </c>
       <c r="J145">
-        <v>157.6890313579646</v>
+        <v>4841421.710591247</v>
       </c>
       <c r="K145">
-        <v>1636.76786652045</v>
+        <v>3985524.09423495</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5520,34 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>35.30441958986935</v>
+        <v>1116403.233567274</v>
       </c>
       <c r="G146">
-        <v>534.2212339025601</v>
+        <v>4841635.11371878</v>
       </c>
       <c r="H146">
-        <v>1823.386255623002</v>
+        <v>3986237.622526398</v>
       </c>
       <c r="I146">
-        <v>361.268072550181</v>
+        <v>1116689.960400118</v>
       </c>
       <c r="J146">
-        <v>119.3090503069604</v>
+        <v>4841373.059017637</v>
       </c>
       <c r="K146">
-        <v>1271.864560291884</v>
+        <v>3985267.389630593</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5555,34 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>34.74868168727603</v>
+        <v>1116402.53791305</v>
       </c>
       <c r="G147">
-        <v>555.6379734104634</v>
+        <v>4841651.626533396</v>
       </c>
       <c r="H147">
-        <v>1832.645605179312</v>
+        <v>3986247.128850372</v>
       </c>
       <c r="I147">
-        <v>443.3779125755522</v>
+        <v>1116764.596736669</v>
       </c>
       <c r="J147">
-        <v>80.92906925595636</v>
+        <v>4841324.407444025</v>
       </c>
       <c r="K147">
-        <v>885.4275553478458</v>
+        <v>3984995.536356672</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5590,34 @@
         <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>34.21838013923303</v>
+        <v>1116401.874099209</v>
       </c>
       <c r="G148">
-        <v>577.0547129183666</v>
+        <v>4841668.139348012</v>
       </c>
       <c r="H148">
-        <v>1841.620536137984</v>
+        <v>3986256.343169457</v>
       </c>
       <c r="I148">
-        <v>527.5096318718822</v>
+        <v>1116841.070924344</v>
       </c>
       <c r="J148">
-        <v>42.54908820495216</v>
+        <v>4841275.755870414</v>
       </c>
       <c r="K148">
-        <v>477.4568516883336</v>
+        <v>3984708.534413186</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5625,34 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>33.71163248572157</v>
+        <v>1116401.239769349</v>
       </c>
       <c r="G149">
-        <v>598.4714524262699</v>
+        <v>4841684.652162629</v>
       </c>
       <c r="H149">
-        <v>1850.328001954573</v>
+        <v>3986265.282889309</v>
       </c>
       <c r="I149">
-        <v>613.7130173561212</v>
+        <v>1116919.428218536</v>
       </c>
       <c r="J149">
-        <v>4.169107153947946</v>
+        <v>4841227.104296803</v>
       </c>
       <c r="K149">
-        <v>47.95244931334901</v>
+        <v>3984406.383800135</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5660,34 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>33.22674565446659</v>
+        <v>1116400.63280414</v>
       </c>
       <c r="G150">
-        <v>619.8881919341732</v>
+        <v>4841701.164977245</v>
       </c>
       <c r="H150">
-        <v>1858.783484024399</v>
+        <v>3986273.963904257</v>
       </c>
       <c r="I150">
-        <v>702.0390819022483</v>
+        <v>1116999.714989009</v>
       </c>
       <c r="J150">
-        <v>-34.21087389705608</v>
+        <v>4841178.452723191</v>
       </c>
       <c r="K150">
-        <v>-403.0856517771072</v>
+        <v>3984089.08451752</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5695,34 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>32.76219215326442</v>
+        <v>1116400.051291517</v>
       </c>
       <c r="G151">
-        <v>641.3049314420764</v>
+        <v>4841717.677791862</v>
       </c>
       <c r="H151">
-        <v>1867.001157323949</v>
+        <v>3986282.400767367</v>
       </c>
       <c r="I151">
-        <v>792.540094529335</v>
+        <v>1117081.978747343</v>
       </c>
       <c r="J151">
-        <v>-72.5908549480603</v>
+        <v>4841129.80114958</v>
       </c>
       <c r="K151">
-        <v>-875.6574515830374</v>
+        <v>3983756.636565341</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5730,34 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>32.3165898200423</v>
+        <v>1116399.493501336</v>
       </c>
       <c r="G152">
-        <v>662.7216709499797</v>
+        <v>4841734.190606478</v>
       </c>
       <c r="H152">
-        <v>1874.994033390137</v>
+        <v>3986290.606837233</v>
       </c>
       <c r="I152">
-        <v>885.2696113329592</v>
+        <v>1117166.268175044</v>
       </c>
       <c r="J152">
-        <v>-110.9708359990645</v>
+        <v>4841081.149575967</v>
       </c>
       <c r="K152">
-        <v>-1369.762950104442</v>
+        <v>3983409.039943596</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5765,34 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>31.88868451907737</v>
+        <v>1116398.957863712</v>
       </c>
       <c r="G153">
-        <v>684.138410457883</v>
+        <v>4841750.703421094</v>
       </c>
       <c r="H153">
-        <v>1882.774084259151</v>
+        <v>3986298.59440522</v>
       </c>
       <c r="I153">
-        <v>980.2825071782813</v>
+        <v>1117252.633152358</v>
       </c>
       <c r="J153">
-        <v>-149.3508170500687</v>
+        <v>4841032.498002357</v>
       </c>
       <c r="K153">
-        <v>-1885.402147341318</v>
+        <v>3983046.294652287</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5800,34 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>31.47733528995442</v>
+        <v>1116398.442950427</v>
       </c>
       <c r="G154">
-        <v>705.5551499657861</v>
+        <v>4841767.216235711</v>
       </c>
       <c r="H154">
-        <v>1890.352350328846</v>
+        <v>3986306.374806206</v>
       </c>
       <c r="I154">
-        <v>1077.635008173533</v>
+        <v>1117341.124787784</v>
       </c>
       <c r="J154">
-        <v>-187.7307981010726</v>
+        <v>4840983.846428745</v>
       </c>
       <c r="K154">
-        <v>-2422.575043293663</v>
+        <v>3982668.400691413</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5835,34 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>31.08150154878255</v>
+        <v>1116397.947458914</v>
       </c>
       <c r="G155">
-        <v>726.9718894736894</v>
+        <v>4841783.729050327</v>
       </c>
       <c r="H155">
-        <v>1897.739034583894</v>
+        <v>3986313.95851532</v>
       </c>
       <c r="I155">
-        <v>1177.384724943135</v>
+        <v>1117431.795448321</v>
       </c>
       <c r="J155">
-        <v>-226.1107791520768</v>
+        <v>4840935.194855134</v>
       </c>
       <c r="K155">
-        <v>-2981.281637961485</v>
+        <v>3982275.358060976</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5870,34 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>30.70023201477751</v>
+        <v>1116397.470198392</v>
       </c>
       <c r="G156">
-        <v>748.3886289815927</v>
+        <v>4841800.241864944</v>
       </c>
       <c r="H156">
-        <v>1904.943585201811</v>
+        <v>3986321.355232751</v>
       </c>
       <c r="I156">
-        <v>1279.59068672013</v>
+        <v>1117524.698790459</v>
       </c>
       <c r="J156">
-        <v>-264.490760203081</v>
+        <v>4840886.543281522</v>
       </c>
       <c r="K156">
-        <v>-3561.52193134478</v>
+        <v>3981867.166760972</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5905,34 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>30.33265509394953</v>
+        <v>1116397.010077827</v>
       </c>
       <c r="G157">
-        <v>769.8053684894959</v>
+        <v>4841816.754679561</v>
       </c>
       <c r="H157">
-        <v>1911.974768217876</v>
+        <v>3986328.573958349</v>
       </c>
       <c r="I157">
-        <v>1384.313376278124</v>
+        <v>1117619.889791927</v>
       </c>
       <c r="J157">
-        <v>-302.8707412540852</v>
+        <v>4840837.891707911</v>
       </c>
       <c r="K157">
-        <v>-4163.295923443548</v>
+        <v>3981443.826791405</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5940,34 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>29.97797049863216</v>
+        <v>1116396.566095446</v>
       </c>
       <c r="G158">
-        <v>791.2221079973992</v>
+        <v>4841833.267494177</v>
       </c>
       <c r="H158">
-        <v>1918.840731650902</v>
+        <v>3986335.623057467</v>
       </c>
       <c r="I158">
-        <v>1491.614765723377</v>
+        <v>1117717.424784232</v>
       </c>
       <c r="J158">
-        <v>-341.2507223050894</v>
+        <v>4840789.2401343</v>
       </c>
       <c r="K158">
-        <v>-4786.603614257788</v>
+        <v>3981005.338152273</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5975,34 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>29.63544191946284</v>
+        <v>1116396.137329563</v>
       </c>
       <c r="G159">
-        <v>812.6388475053025</v>
+        <v>4841849.780308793</v>
       </c>
       <c r="H159">
-        <v>1925.549062266403</v>
+        <v>3986342.510319231</v>
       </c>
       <c r="I159">
-        <v>1601.558353168248</v>
+        <v>1117817.361485993</v>
       </c>
       <c r="J159">
-        <v>-379.6307033560932</v>
+        <v>4840740.588560688</v>
       </c>
       <c r="K159">
-        <v>-5431.445003787496</v>
+        <v>3980551.700843576</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,34 +6010,34 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>29.30439059712301</v>
+        <v>1116395.722930527</v>
       </c>
       <c r="G160">
-        <v>834.0555870132057</v>
+        <v>4841866.29312341</v>
       </c>
       <c r="H160">
-        <v>1932.106835968851</v>
+        <v>3986349.24300828</v>
       </c>
       <c r="I160">
-        <v>1714.209200307705</v>
+        <v>1117919.759037094</v>
       </c>
       <c r="J160">
-        <v>-418.0106844070975</v>
+        <v>4840691.936987077</v>
       </c>
       <c r="K160">
-        <v>-6097.820092032682</v>
+        <v>3980082.914865315</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6057,22 +6057,22 @@
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G161">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H161">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I161">
-        <v>-821.8582924275249</v>
+        <v>1114860.820236377</v>
       </c>
       <c r="J161">
-        <v>2903.432980274598</v>
+        <v>4843226.408838925</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984369.055488982</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6092,22 +6092,22 @@
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G162">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H162">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I162">
-        <v>-805.6326213422614</v>
+        <v>1114890.434218572</v>
       </c>
       <c r="J162">
-        <v>2832.804667362052</v>
+        <v>4843177.757219206</v>
       </c>
       <c r="K162">
-        <v>248.5790221175008</v>
+        <v>3984672.851384454</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6127,22 +6127,22 @@
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G163">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H163">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I163">
-        <v>-789.007408033867</v>
+        <v>1114920.777417833</v>
       </c>
       <c r="J163">
-        <v>2762.176354449506</v>
+        <v>4843129.105599486</v>
       </c>
       <c r="K163">
-        <v>484.7627547468915</v>
+        <v>3984961.498624027</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6162,22 +6162,22 @@
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G164">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H164">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I164">
-        <v>-771.9728141426691</v>
+        <v>1114951.867790462</v>
       </c>
       <c r="J164">
-        <v>2691.548041536959</v>
+        <v>4843080.453979767</v>
       </c>
       <c r="K164">
-        <v>708.5511978881739</v>
+        <v>3985234.997207702</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6197,22 +6197,22 @@
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G165">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H165">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I165">
-        <v>-754.5187590484396</v>
+        <v>1114983.723734913</v>
       </c>
       <c r="J165">
-        <v>2620.919728624413</v>
+        <v>4843031.802360048</v>
       </c>
       <c r="K165">
-        <v>919.9443515413465</v>
+        <v>3985493.347135478</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6232,22 +6232,22 @@
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G166">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H166">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I166">
-        <v>-736.6349139049506</v>
+        <v>1115016.36410269</v>
       </c>
       <c r="J166">
-        <v>2550.291415711867</v>
+        <v>4842983.150740328</v>
       </c>
       <c r="K166">
-        <v>1118.942215706411</v>
+        <v>3985736.548407355</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6267,22 +6267,22 @@
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G167">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H167">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I167">
-        <v>-718.3106955276393</v>
+        <v>1115049.808209495</v>
       </c>
       <c r="J167">
-        <v>2479.66310279932</v>
+        <v>4842934.499120608</v>
       </c>
       <c r="K167">
-        <v>1305.544790383366</v>
+        <v>3985964.601023334</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6302,22 +6302,22 @@
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G168">
-        <v>-73.67663441598036</v>
+        <v>4841122.147845298</v>
       </c>
       <c r="H168">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I168">
-        <v>-699.5352601307585</v>
+        <v>1115084.075846661</v>
       </c>
       <c r="J168">
-        <v>2409.034789886774</v>
+        <v>4842885.847500889</v>
       </c>
       <c r="K168">
-        <v>1479.752075572212</v>
+        <v>3986177.504983414</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6337,22 +6337,22 @@
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>164.5965333369967</v>
+        <v>1116578.15113867</v>
       </c>
       <c r="G169">
-        <v>-61.51054821308141</v>
+        <v>4841138.66065627</v>
       </c>
       <c r="H169">
-        <v>797.8677955246354</v>
+        <v>3985231.386816095</v>
       </c>
       <c r="I169">
-        <v>-680.2974969103134</v>
+        <v>1115119.187292868</v>
       </c>
       <c r="J169">
-        <v>2338.406476974228</v>
+        <v>4842837.195881169</v>
       </c>
       <c r="K169">
-        <v>1641.564071272949</v>
+        <v>3986375.260287595</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6372,22 +6372,22 @@
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>127.7461111181954</v>
+        <v>1116529.470590278</v>
       </c>
       <c r="G170">
-        <v>-49.34446201018247</v>
+        <v>4841155.17346724</v>
       </c>
       <c r="H170">
-        <v>982.967755189421</v>
+        <v>3985430.641375788</v>
       </c>
       <c r="I170">
-        <v>-660.5860214689823</v>
+        <v>1115155.163326135</v>
       </c>
       <c r="J170">
-        <v>2267.778164061682</v>
+        <v>4842788.54426145</v>
       </c>
       <c r="K170">
-        <v>1790.980777485576</v>
+        <v>3986557.866935879</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6407,22 +6407,22 @@
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>106.0983366813829</v>
+        <v>1116500.873210177</v>
       </c>
       <c r="G171">
-        <v>-37.17837580728353</v>
+        <v>4841171.686278212</v>
       </c>
       <c r="H171">
-        <v>1093.222757537088</v>
+        <v>3985549.327581805</v>
       </c>
       <c r="I171">
-        <v>-640.3891690791335</v>
+        <v>1115192.025236124</v>
       </c>
       <c r="J171">
-        <v>2197.149851149135</v>
+        <v>4842739.89264173</v>
       </c>
       <c r="K171">
-        <v>1928.002194210095</v>
+        <v>3986725.324928263</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6442,22 +6442,22 @@
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>92.4326732957808</v>
+        <v>1116482.820445848</v>
       </c>
       <c r="G172">
-        <v>-25.01228960438458</v>
+        <v>4841188.199089184</v>
       </c>
       <c r="H172">
-        <v>1172.014555864235</v>
+        <v>3985634.144591552</v>
       </c>
       <c r="I172">
-        <v>-619.6949877799477</v>
+        <v>1115229.794836735</v>
       </c>
       <c r="J172">
-        <v>2126.521538236589</v>
+        <v>4842691.24102201</v>
       </c>
       <c r="K172">
-        <v>2052.628321446505</v>
+        <v>3986877.634264749</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6477,22 +6477,22 @@
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>82.90229512284623</v>
+        <v>1116470.230521285</v>
       </c>
       <c r="G173">
-        <v>-12.84620340148564</v>
+        <v>4841204.711900155</v>
       </c>
       <c r="H173">
-        <v>1233.369687008848</v>
+        <v>3985700.191551601</v>
       </c>
       <c r="I173">
-        <v>-598.4912313045675</v>
+        <v>1115268.494479012</v>
       </c>
       <c r="J173">
-        <v>2055.893225324043</v>
+        <v>4842642.589402291</v>
       </c>
       <c r="K173">
-        <v>2164.859159194806</v>
+        <v>3987014.794945335</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6512,22 +6512,22 @@
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>75.79234760357431</v>
+        <v>1116460.838060536</v>
       </c>
       <c r="G174">
-        <v>-0.6801171985867014</v>
+        <v>4841221.224711127</v>
       </c>
       <c r="H174">
-        <v>1283.62429855406</v>
+        <v>3985754.28913495</v>
       </c>
       <c r="I174">
-        <v>-576.7653518330793</v>
+        <v>1115308.147064378</v>
       </c>
       <c r="J174">
-        <v>1985.264912411497</v>
+        <v>4842593.937782572</v>
       </c>
       <c r="K174">
-        <v>2264.694707454997</v>
+        <v>3987136.806970024</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6547,22 +6547,22 @@
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>70.23336151823919</v>
+        <v>1116453.494467848</v>
       </c>
       <c r="G175">
-        <v>11.48596900431225</v>
+        <v>4841237.737522097</v>
       </c>
       <c r="H175">
-        <v>1326.186286124012</v>
+        <v>3985800.105839115</v>
       </c>
       <c r="I175">
-        <v>-554.5044925670484</v>
+        <v>1115348.776058179</v>
       </c>
       <c r="J175">
-        <v>1914.63659949895</v>
+        <v>4842545.286162851</v>
       </c>
       <c r="K175">
-        <v>2352.13496622708</v>
+        <v>3987243.670338814</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6582,22 +6582,22 @@
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>65.735737012154</v>
+        <v>1116447.552966659</v>
       </c>
       <c r="G176">
-        <v>23.65205520721119</v>
+        <v>4841254.25033307</v>
       </c>
       <c r="H176">
-        <v>1363.101058647778</v>
+        <v>3985839.843485513</v>
       </c>
       <c r="I176">
-        <v>-531.6954801212063</v>
+        <v>1115390.405503575</v>
       </c>
       <c r="J176">
-        <v>1844.008286586404</v>
+        <v>4842496.634543132</v>
       </c>
       <c r="K176">
-        <v>2427.179935511052</v>
+        <v>3987335.385051705</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6617,22 +6617,22 @@
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>62.0011060787127</v>
+        <v>1116442.619403597</v>
       </c>
       <c r="G177">
-        <v>35.81814141011013</v>
+        <v>4841270.763144041</v>
       </c>
       <c r="H177">
-        <v>1395.693149932994</v>
+        <v>3985874.927895094</v>
       </c>
       <c r="I177">
-        <v>-508.3248167277922</v>
+        <v>1115433.060035764</v>
       </c>
       <c r="J177">
-        <v>1773.379973673858</v>
+        <v>4842447.982923413</v>
       </c>
       <c r="K177">
-        <v>2489.829615306917</v>
+        <v>3987411.951108697</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6652,22 +6652,22 @@
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>58.83628735868497</v>
+        <v>1116438.438580106</v>
       </c>
       <c r="G178">
-        <v>47.98422761300908</v>
+        <v>4841287.275955012</v>
       </c>
       <c r="H178">
-        <v>1424.869630103248</v>
+        <v>3985906.335501667</v>
       </c>
       <c r="I178">
-        <v>-484.3786722489311</v>
+        <v>1115476.764896567</v>
       </c>
       <c r="J178">
-        <v>1702.751660761312</v>
+        <v>4842399.331303693</v>
       </c>
       <c r="K178">
-        <v>2540.084005614673</v>
+        <v>3987473.368509791</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6687,22 +6687,22 @@
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>56.11010479225467</v>
+        <v>1116434.837208552</v>
       </c>
       <c r="G179">
-        <v>60.15031381590802</v>
+        <v>4841303.788765984</v>
       </c>
       <c r="H179">
-        <v>1451.27897853939</v>
+        <v>3985934.76437385</v>
       </c>
       <c r="I179">
-        <v>-459.842875992327</v>
+        <v>1115521.545949361</v>
       </c>
       <c r="J179">
-        <v>1632.123347848765</v>
+        <v>4842350.679683973</v>
       </c>
       <c r="K179">
-        <v>2577.943106434318</v>
+        <v>3987519.637254987</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6722,22 +6722,22 @@
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>53.73000654517955</v>
+        <v>1116431.693025096</v>
       </c>
       <c r="G180">
-        <v>72.31640001880696</v>
+        <v>4841320.301576956</v>
       </c>
       <c r="H180">
-        <v>1475.400902859645</v>
+        <v>3985960.73090252</v>
       </c>
       <c r="I180">
-        <v>-434.7029083254229</v>
+        <v>1115567.429694381</v>
       </c>
       <c r="J180">
-        <v>1561.495034936219</v>
+        <v>4842302.028064254</v>
       </c>
       <c r="K180">
-        <v>2603.406917765856</v>
+        <v>3987550.757344284</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6757,22 +6757,22 @@
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>51.62860474706631</v>
+        <v>1116428.917008275</v>
       </c>
       <c r="G181">
-        <v>84.48248622170591</v>
+        <v>4841336.814387927</v>
       </c>
       <c r="H181">
-        <v>1497.600257687534</v>
+        <v>3985984.627842744</v>
       </c>
       <c r="I181">
-        <v>-408.9438920830673</v>
+        <v>1115614.44328441</v>
       </c>
       <c r="J181">
-        <v>1490.866722023673</v>
+        <v>4842253.376444534</v>
       </c>
       <c r="K181">
-        <v>2616.475439609284</v>
+        <v>3987566.728777682</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6792,22 +6792,22 @@
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>49.75552671882506</v>
+        <v>1116426.442614222</v>
       </c>
       <c r="G182">
-        <v>96.64857242460485</v>
+        <v>4841353.327198898</v>
       </c>
       <c r="H182">
-        <v>1518.161014731235</v>
+        <v>3986006.760881558</v>
       </c>
       <c r="I182">
-        <v>-382.5505837636041</v>
+        <v>1115662.614540842</v>
       </c>
       <c r="J182">
-        <v>1420.238409111127</v>
+        <v>4842204.724824815</v>
       </c>
       <c r="K182">
-        <v>2617.148671964603</v>
+        <v>3987567.551555181</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6827,22 +6827,22 @@
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>48.07227029711166</v>
+        <v>1116424.218980387</v>
       </c>
       <c r="G183">
-        <v>108.8146586275038</v>
+        <v>4841369.840009871</v>
       </c>
       <c r="H183">
-        <v>1537.308533842733</v>
+        <v>3986027.372612088</v>
       </c>
       <c r="I183">
-        <v>-355.5073645081726</v>
+        <v>1115711.971970146</v>
       </c>
       <c r="J183">
-        <v>1349.61009619858</v>
+        <v>4842156.073205095</v>
       </c>
       <c r="K183">
-        <v>2605.426614831812</v>
+        <v>3987553.225676782</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6862,22 +6862,22 @@
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>46.54883834052567</v>
+        <v>1116422.206479617</v>
       </c>
       <c r="G184">
-        <v>120.9807448304027</v>
+        <v>4841386.352820842</v>
       </c>
       <c r="H184">
-        <v>1555.224659899982</v>
+        <v>3986046.658784897</v>
       </c>
       <c r="I184">
-        <v>-327.7982308578814</v>
+        <v>1115762.54478074</v>
       </c>
       <c r="J184">
-        <v>1278.981783286034</v>
+        <v>4842107.421585375</v>
       </c>
       <c r="K184">
-        <v>2581.309268210914</v>
+        <v>3987523.751142484</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6897,22 +6897,22 @@
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>45.16146908656557</v>
+        <v>1116420.373721889</v>
       </c>
       <c r="G185">
-        <v>133.1468310333017</v>
+        <v>4841402.865631813</v>
       </c>
       <c r="H185">
-        <v>1572.058251665977</v>
+        <v>3986064.779641981</v>
       </c>
       <c r="I185">
-        <v>-299.4067852833874</v>
+        <v>1115814.362900268</v>
       </c>
       <c r="J185">
-        <v>1208.353470373488</v>
+        <v>4842058.769965657</v>
       </c>
       <c r="K185">
-        <v>2544.796632101905</v>
+        <v>3987479.127952288</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6932,22 +6932,22 @@
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>43.89106464211088</v>
+        <v>1116418.695478295</v>
       </c>
       <c r="G186">
-        <v>145.3129172362006</v>
+        <v>4841419.378442784</v>
       </c>
       <c r="H186">
-        <v>1587.932707032332</v>
+        <v>3986081.868017473</v>
       </c>
       <c r="I186">
-        <v>-270.3162264812726</v>
+        <v>1115867.456993317</v>
       </c>
       <c r="J186">
-        <v>1137.725157460941</v>
+        <v>4842010.118345937</v>
       </c>
       <c r="K186">
-        <v>2495.888706504788</v>
+        <v>3987419.356106193</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6967,22 +6967,22 @@
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>42.72207748132487</v>
+        <v>1116417.151210071</v>
       </c>
       <c r="G187">
-        <v>157.4790034390996</v>
+        <v>4841435.891253756</v>
       </c>
       <c r="H187">
-        <v>1602.951457608603</v>
+        <v>3986098.035252402</v>
       </c>
       <c r="I187">
-        <v>-240.5093394314791</v>
+        <v>1115921.858479563</v>
       </c>
       <c r="J187">
-        <v>1067.096844548395</v>
+        <v>4841961.466726217</v>
       </c>
       <c r="K187">
-        <v>2434.585491419562</v>
+        <v>3987344.435604199</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -7002,22 +7002,22 @@
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>41.64170525779041</v>
+        <v>1116415.724004923</v>
       </c>
       <c r="G188">
-        <v>169.6450896419985</v>
+        <v>4841452.404064728</v>
       </c>
       <c r="H188">
-        <v>1617.202056677925</v>
+        <v>3986113.375595252</v>
       </c>
       <c r="I188">
-        <v>-209.9684852099174</v>
+        <v>1115977.599552359</v>
       </c>
       <c r="J188">
-        <v>996.468531635849</v>
+        <v>4841912.815106498</v>
       </c>
       <c r="K188">
-        <v>2360.886986846226</v>
+        <v>3987254.366446307</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7037,22 +7037,22 @@
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>40.63929794656896</v>
+        <v>1116414.399793837</v>
       </c>
       <c r="G189">
-        <v>181.8111758448974</v>
+        <v>4841468.916875699</v>
       </c>
       <c r="H189">
-        <v>1630.759271675927</v>
+        <v>3986127.969530929</v>
       </c>
       <c r="I189">
-        <v>-178.6755905502206</v>
+        <v>1116034.713197791</v>
       </c>
       <c r="J189">
-        <v>925.8402187233025</v>
+        <v>4841864.163486779</v>
       </c>
       <c r="K189">
-        <v>2274.793192784782</v>
+        <v>3987149.148632517</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7072,22 +7072,22 @@
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>39.70591421275685</v>
+        <v>1116413.166765033</v>
       </c>
       <c r="G190">
-        <v>193.9772620477964</v>
+        <v>4841485.42968667</v>
       </c>
       <c r="H190">
-        <v>1643.687458628654</v>
+        <v>3986141.886336765</v>
       </c>
       <c r="I190">
-        <v>-146.612137148464</v>
+        <v>1116093.233214199</v>
       </c>
       <c r="J190">
-        <v>855.2119058107565</v>
+        <v>4841815.511867058</v>
       </c>
       <c r="K190">
-        <v>2176.304109235229</v>
+        <v>3987028.782162827</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7107,22 +7107,22 @@
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>38.83398458362604</v>
+        <v>1116412.014919004</v>
       </c>
       <c r="G191">
-        <v>206.1433482506953</v>
+        <v>4841501.942497643</v>
       </c>
       <c r="H191">
-        <v>1656.042409768206</v>
+        <v>3986155.186071426</v>
       </c>
       <c r="I191">
-        <v>-113.7591507045254</v>
+        <v>1116153.194232173</v>
       </c>
       <c r="J191">
-        <v>784.5835928982102</v>
+        <v>4841766.860247339</v>
       </c>
       <c r="K191">
-        <v>2065.419736197566</v>
+        <v>3986893.267037239</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7142,22 +7142,22 @@
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>38.01705232657594</v>
+        <v>1116410.935726206</v>
       </c>
       <c r="G192">
-        <v>218.3094344535943</v>
+        <v>4841518.455308613</v>
       </c>
       <c r="H192">
-        <v>1667.872808651275</v>
+        <v>3986167.921141302</v>
       </c>
       <c r="I192">
-        <v>-80.09718969359793</v>
+        <v>1116214.631735051</v>
       </c>
       <c r="J192">
-        <v>713.9552799856641</v>
+        <v>4841718.20862762</v>
       </c>
       <c r="K192">
-        <v>1942.140073671794</v>
+        <v>3986742.603255752</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7177,22 +7177,22 @@
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>37.24957170977785</v>
+        <v>1116409.921860555</v>
       </c>
       <c r="G193">
-        <v>230.4755206564932</v>
+        <v>4841534.968119585</v>
       </c>
       <c r="H193">
-        <v>1679.221388771864</v>
+        <v>3986180.137547719</v>
       </c>
       <c r="I193">
-        <v>-45.60633386121262</v>
+        <v>1116277.582079917</v>
       </c>
       <c r="J193">
-        <v>643.3269670731178</v>
+        <v>4841669.5570079</v>
       </c>
       <c r="K193">
-        <v>1806.465121657913</v>
+        <v>3986576.790818367</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7212,22 +7212,22 @@
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>36.5267492154712</v>
+        <v>1116408.966989666</v>
       </c>
       <c r="G194">
-        <v>242.6416068593922</v>
+        <v>4841551.480930556</v>
       </c>
       <c r="H194">
-        <v>1690.125865339929</v>
+        <v>3986191.87588997</v>
       </c>
       <c r="I194">
-        <v>-10.26617243496051</v>
+        <v>1116342.082519112</v>
       </c>
       <c r="J194">
-        <v>572.6986541605713</v>
+        <v>4841620.90538818</v>
       </c>
       <c r="K194">
-        <v>1658.394880155923</v>
+        <v>3986395.829725083</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7247,22 +7247,22 @@
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>35.84441730518657</v>
+        <v>1116408.065608092</v>
       </c>
       <c r="G195">
-        <v>254.8076930622912</v>
+        <v>4841567.993741528</v>
       </c>
       <c r="H195">
-        <v>1700.619691515613</v>
+        <v>3986203.17217938</v>
       </c>
       <c r="I195">
-        <v>25.94420795406081</v>
+        <v>1116408.171222282</v>
       </c>
       <c r="J195">
-        <v>502.0703412480253</v>
+        <v>4841572.253768461</v>
       </c>
       <c r="K195">
-        <v>1497.929349165825</v>
+        <v>3986199.719975901</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7282,22 +7282,22 @@
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>35.19893313663677</v>
+        <v>1116407.212903526</v>
       </c>
       <c r="G196">
-        <v>266.97377926519</v>
+        <v>4841584.5065525</v>
       </c>
       <c r="H196">
-        <v>1710.732677348679</v>
+        <v>3986214.058505574</v>
       </c>
       <c r="I196">
-        <v>63.04623564722261</v>
+        <v>1116475.887298968</v>
       </c>
       <c r="J196">
-        <v>431.4420283354789</v>
+        <v>4841523.602148741</v>
       </c>
       <c r="K196">
-        <v>1325.068528687617</v>
+        <v>3985988.461570819</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7317,22 +7317,22 @@
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>34.58709660781356</v>
+        <v>1116406.404648533</v>
       </c>
       <c r="G197">
-        <v>279.139865468089</v>
+        <v>4841601.01936347</v>
       </c>
       <c r="H197">
-        <v>1720.491500289195</v>
+        <v>3986224.563586027</v>
       </c>
       <c r="I197">
-        <v>101.0618666390892</v>
+        <v>1116545.270821744</v>
       </c>
       <c r="J197">
-        <v>360.8137154229329</v>
+        <v>4841474.950529022</v>
       </c>
       <c r="K197">
-        <v>1139.8124187213</v>
+        <v>3985762.05450984</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7352,22 +7352,22 @@
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>34.00608351720534</v>
+        <v>1116405.637112256</v>
       </c>
       <c r="G198">
-        <v>291.305951670988</v>
+        <v>4841617.532174442</v>
       </c>
       <c r="H198">
-        <v>1729.920129294053</v>
+        <v>3986234.713222603</v>
       </c>
       <c r="I198">
-        <v>140.013597570391</v>
+        <v>1116616.362849937</v>
       </c>
       <c r="J198">
-        <v>290.1854025103865</v>
+        <v>4841426.298909302</v>
       </c>
       <c r="K198">
-        <v>942.1610192668736</v>
+        <v>3985520.498792961</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7387,22 +7387,22 @@
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>33.45339065307456</v>
+        <v>1116404.906987875</v>
       </c>
       <c r="G199">
-        <v>303.4720378738869</v>
+        <v>4841634.044985414</v>
       </c>
       <c r="H199">
-        <v>1739.040179504988</v>
+        <v>3986244.530683355</v>
       </c>
       <c r="I199">
-        <v>179.924479040941</v>
+        <v>1116689.205453921</v>
       </c>
       <c r="J199">
-        <v>219.5570895978401</v>
+        <v>4841377.647289583</v>
       </c>
       <c r="K199">
-        <v>732.1143303243385</v>
+        <v>3985263.794420184</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7422,22 +7422,22 @@
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>32.92679037548469</v>
+        <v>1116404.211332608</v>
       </c>
       <c r="G200">
-        <v>315.6381240767859</v>
+        <v>4841650.557796385</v>
       </c>
       <c r="H200">
-        <v>1747.871210705782</v>
+        <v>3986254.037023803</v>
       </c>
       <c r="I200">
-        <v>220.818129250365</v>
+        <v>1116763.841740014</v>
       </c>
       <c r="J200">
-        <v>148.9287766852941</v>
+        <v>4841328.995669863</v>
       </c>
       <c r="K200">
-        <v>509.6723518936947</v>
+        <v>3984991.941391509</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7457,22 +7457,22 @@
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>32.42429281125046</v>
+        <v>1116403.547517772</v>
       </c>
       <c r="G201">
-        <v>327.8042102796848</v>
+        <v>4841667.070607357</v>
       </c>
       <c r="H201">
-        <v>1756.430979924883</v>
+        <v>3986263.251358857</v>
       </c>
       <c r="I201">
-        <v>262.7187479747287</v>
+        <v>1116840.315875988</v>
       </c>
       <c r="J201">
-        <v>78.30046377274768</v>
+        <v>4841280.344050144</v>
       </c>
       <c r="K201">
-        <v>274.8350839749411</v>
+        <v>3984704.939706934</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7492,22 +7492,22 @@
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>31.94411419870325</v>
+        <v>1116402.913186961</v>
       </c>
       <c r="G202">
-        <v>339.9702964825838</v>
+        <v>4841683.583418328</v>
       </c>
       <c r="H202">
-        <v>1764.735656386064</v>
+        <v>3986272.191094202</v>
       </c>
       <c r="I202">
-        <v>305.651130887317</v>
+        <v>1116918.673117205</v>
       </c>
       <c r="J202">
-        <v>7.672150860201292</v>
+        <v>4841231.692430424</v>
       </c>
       <c r="K202">
-        <v>27.60252656807857</v>
+        <v>3984402.789366461</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7527,22 +7527,22 @@
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>31.48465023422106</v>
+        <v>1116402.306220842</v>
       </c>
       <c r="G203">
-        <v>352.1363826854827</v>
+        <v>4841700.0962293</v>
       </c>
       <c r="H203">
-        <v>1772.800005347326</v>
+        <v>3986280.872124194</v>
       </c>
       <c r="I203">
-        <v>349.6406842320594</v>
+        <v>1116998.9598334</v>
       </c>
       <c r="J203">
-        <v>-62.95616205234476</v>
+        <v>4841183.040810704</v>
       </c>
       <c r="K203">
-        <v>-232.0253203268922</v>
+        <v>3984085.49037009</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7562,22 +7562,22 @@
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>31.04445351280465</v>
+        <v>1116401.724707348</v>
       </c>
       <c r="G204">
-        <v>364.3024688883816</v>
+        <v>4841716.609040271</v>
       </c>
       <c r="H204">
-        <v>1780.637546080066</v>
+        <v>3986289.309001925</v>
       </c>
       <c r="I204">
-        <v>394.7134398582693</v>
+        <v>1117081.223536119</v>
       </c>
       <c r="J204">
-        <v>-133.5844749648911</v>
+        <v>4841134.389190985</v>
       </c>
       <c r="K204">
-        <v>-504.0484567099729</v>
+        <v>3983753.04271782</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7597,22 +7597,22 @@
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>30.62221433985196</v>
+        <v>1116401.166916331</v>
       </c>
       <c r="G205">
-        <v>376.4685550912806</v>
+        <v>4841733.121851242</v>
       </c>
       <c r="H205">
-        <v>1788.260688234416</v>
+        <v>3986297.515086012</v>
       </c>
       <c r="I205">
-        <v>440.8960706256001</v>
+        <v>1117165.512906836</v>
       </c>
       <c r="J205">
-        <v>-204.2127878774375</v>
+        <v>4841085.737571265</v>
       </c>
       <c r="K205">
-        <v>-788.4668825811632</v>
+        <v>3983405.446409651</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7632,22 +7632,22 @@
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>30.21674433462324</v>
+        <v>1116400.631277903</v>
       </c>
       <c r="G206">
-        <v>388.6346412941795</v>
+        <v>4841749.634662214</v>
       </c>
       <c r="H206">
-        <v>1795.680850044941</v>
+        <v>3986305.502667842</v>
       </c>
       <c r="I206">
-        <v>488.2159061883351</v>
+        <v>1117251.877825762</v>
       </c>
       <c r="J206">
-        <v>-274.8411007899839</v>
+        <v>4841037.085951546</v>
       </c>
       <c r="K206">
-        <v>-1085.280597940462</v>
+        <v>3983042.701445584</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7667,22 +7667,22 @@
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>29.8269623578466</v>
+        <v>1116400.116363847</v>
       </c>
       <c r="G207">
-        <v>400.8007274970784</v>
+        <v>4841766.147473186</v>
       </c>
       <c r="H207">
-        <v>1802.908561203527</v>
+        <v>3986313.283082311</v>
       </c>
       <c r="I207">
-        <v>536.7009491683517</v>
+        <v>1117340.369401362</v>
       </c>
       <c r="J207">
-        <v>-345.4694137025296</v>
+        <v>4840988.434331827</v>
       </c>
       <c r="K207">
-        <v>-1394.489602787868</v>
+        <v>3982664.807825618</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7702,22 +7702,22 @@
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>29.45188238398151</v>
+        <v>1116399.620871591</v>
       </c>
       <c r="G208">
-        <v>412.9668136999774</v>
+        <v>4841782.660284157</v>
       </c>
       <c r="H208">
-        <v>1809.953552725883</v>
+        <v>3986320.866804567</v>
       </c>
       <c r="I208">
-        <v>586.3798917263302</v>
+        <v>1117431.040000601</v>
       </c>
       <c r="J208">
-        <v>-416.097726615076</v>
+        <v>4840939.782712108</v>
       </c>
       <c r="K208">
-        <v>-1716.093897123385</v>
+        <v>3982271.765549753</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7737,22 +7737,22 @@
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>29.0906030083861</v>
+        <v>1116399.143610354</v>
       </c>
       <c r="G209">
-        <v>425.1328999028763</v>
+        <v>4841799.173095128</v>
       </c>
       <c r="H209">
-        <v>1816.82483573638</v>
+        <v>3986328.263534817</v>
       </c>
       <c r="I209">
-        <v>637.2821325410094</v>
+        <v>1117523.943279931</v>
       </c>
       <c r="J209">
-        <v>-486.7260395276224</v>
+        <v>4840891.131092387</v>
       </c>
       <c r="K209">
-        <v>-2050.093480947011</v>
+        <v>3981863.57461799</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7772,22 +7772,22 @@
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>28.74229833519325</v>
+        <v>1116398.683489099</v>
       </c>
       <c r="G210">
-        <v>437.2989861057752</v>
+        <v>4841815.6859061</v>
       </c>
       <c r="H210">
-        <v>1823.530770771638</v>
+        <v>3986335.482272925</v>
       </c>
       <c r="I210">
-        <v>689.4377942065472</v>
+        <v>1117619.134217045</v>
       </c>
       <c r="J210">
-        <v>-557.3543524401688</v>
+        <v>4840842.479472668</v>
       </c>
       <c r="K210">
-        <v>-2396.488354258747</v>
+        <v>3981440.235030328</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7807,22 +7807,22 @@
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>28.40621003623182</v>
+        <v>1116398.239506053</v>
       </c>
       <c r="G211">
-        <v>449.4650723086742</v>
+        <v>4841832.198717072</v>
       </c>
       <c r="H211">
-        <v>1830.079128939976</v>
+        <v>3986342.531384259</v>
       </c>
       <c r="I211">
-        <v>742.8777410582705</v>
+        <v>1117716.669143411</v>
       </c>
       <c r="J211">
-        <v>-627.9826653527151</v>
+        <v>4840793.827852949</v>
       </c>
       <c r="K211">
-        <v>-2755.278517058591</v>
+        <v>3981001.746786768</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7842,22 +7842,22 @@
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>28.08164040721909</v>
+        <v>1116397.810739527</v>
       </c>
       <c r="G212">
-        <v>461.6311585115732</v>
+        <v>4841848.711528043</v>
       </c>
       <c r="H212">
-        <v>1836.47714605883</v>
+        <v>3986349.418657958</v>
       </c>
       <c r="I212">
-        <v>797.6335974373667</v>
+        <v>1117816.605777608</v>
       </c>
       <c r="J212">
-        <v>-698.6109782652609</v>
+        <v>4840745.176233229</v>
       </c>
       <c r="K212">
-        <v>-3126.463969346541</v>
+        <v>3980548.109887309</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7877,22 +7877,22 @@
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>27.76794627653781</v>
+        <v>1116397.39633987</v>
       </c>
       <c r="G213">
-        <v>473.7972447144721</v>
+        <v>4841865.224339015</v>
       </c>
       <c r="H213">
-        <v>1842.73157071597</v>
+        <v>3986356.151358676</v>
       </c>
       <c r="I213">
-        <v>853.7377664053348</v>
+        <v>1117919.003259483</v>
       </c>
       <c r="J213">
-        <v>-769.2392911778072</v>
+        <v>4840696.524613509</v>
       </c>
       <c r="K213">
-        <v>-3510.044711122604</v>
+        <v>3980079.324331951</v>
       </c>
     </row>
   </sheetData>
